--- a/financial_projection_and_sensitivity/ROI_NPV_Payback_Hazira.xlsx
+++ b/financial_projection_and_sensitivity/ROI_NPV_Payback_Hazira.xlsx
@@ -8,13 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lucymalmud/Desktop/hazira-port/financial_projection_and_sensitivity/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7665AA3F-78B8-5F4A-9616-84632F89BE54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCCE1102-9FFD-A24E-AA01-5CA9379E91B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9860" yWindow="720" windowWidth="18560" windowHeight="15180" xr2:uid="{7C4D7752-87F6-D74B-989F-4854CE9FBA7F}"/>
+    <workbookView xWindow="11960" yWindow="720" windowWidth="16460" windowHeight="15180" activeTab="2" xr2:uid="{7C4D7752-87F6-D74B-989F-4854CE9FBA7F}"/>
   </bookViews>
   <sheets>
     <sheet name="CF_Conservative" sheetId="1" r:id="rId1"/>
+    <sheet name="CF_Moderate" sheetId="4" r:id="rId2"/>
+    <sheet name="CF_Aggressive" sheetId="5" r:id="rId3"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId4"/>
+    <externalReference r:id="rId5"/>
+    <externalReference r:id="rId6"/>
+  </externalReferences>
   <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -35,8 +42,111 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>tc={95EFAD43-04F6-A74D-A69C-4F78BDB1E99F}</author>
+    <author>tc={E1FE58F2-E999-1441-B1CF-5BCC1600FC2A}</author>
+  </authors>
+  <commentList>
+    <comment ref="A5" authorId="0" shapeId="0" xr:uid="{95EFAD43-04F6-A74D-A69C-4F78BDB1E99F}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Adjusted for inflation each year</t>
+      </text>
+    </comment>
+    <comment ref="A22" authorId="1" shapeId="0" xr:uid="{E1FE58F2-E999-1441-B1CF-5BCC1600FC2A}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Number of years until cumulative cash flow is positive - not expected to be immediate, values are likely off</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>tc={126B3E98-8B15-1C4D-AB98-2D2D070DF9C9}</author>
+    <author>tc={AC9E65DC-B4DF-4141-BD98-533966914353}</author>
+  </authors>
+  <commentList>
+    <comment ref="A5" authorId="0" shapeId="0" xr:uid="{126B3E98-8B15-1C4D-AB98-2D2D070DF9C9}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Adjusted for inflation each year</t>
+      </text>
+    </comment>
+    <comment ref="A22" authorId="1" shapeId="0" xr:uid="{AC9E65DC-B4DF-4141-BD98-533966914353}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Number of years until cumulative cash flow is positive - not expected to be immediate, values are likely off</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>tc={6BC89D4B-D22E-634F-97B7-C60690853C02}</author>
+    <author>tc={19431FD1-7FD4-9843-A8E8-55A5E2FE395F}</author>
+  </authors>
+  <commentList>
+    <comment ref="A5" authorId="0" shapeId="0" xr:uid="{6BC89D4B-D22E-634F-97B7-C60690853C02}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Adjusted for inflation each year</t>
+      </text>
+    </comment>
+    <comment ref="A22" authorId="1" shapeId="0" xr:uid="{19431FD1-7FD4-9843-A8E8-55A5E2FE395F}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Number of years until cumulative cash flow is positive - not expected to be immediate, values are likely off</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="23">
   <si>
     <t>variable_cost_savings</t>
   </si>
@@ -94,18 +204,39 @@
   <si>
     <t>pay_back</t>
   </si>
+  <si>
+    <t>aggressive</t>
+  </si>
+  <si>
+    <t>moderate</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>ebita = earnings before interest, taxes, and amortization</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
+  </numFmts>
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -128,8 +259,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -145,6 +278,439 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="Savings_by_subprocess"/>
+      <sheetName val="KPI_changes"/>
+      <sheetName val="Totals"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2">
+        <row r="1">
+          <cell r="C1" t="str">
+            <v>savings_delta</v>
+          </cell>
+          <cell r="F1" t="str">
+            <v>scenario</v>
+          </cell>
+        </row>
+        <row r="2">
+          <cell r="C2">
+            <v>49367804</v>
+          </cell>
+          <cell r="F2" t="str">
+            <v>aggressive</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="C3">
+            <v>54523237.600000001</v>
+          </cell>
+          <cell r="F3" t="str">
+            <v>moderate</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="C4">
+            <v>57601438.799999997</v>
+          </cell>
+          <cell r="F4" t="str">
+            <v>conservative</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="Capex"/>
+      <sheetName val="Assumptions"/>
+    </sheetNames>
+    <definedNames>
+      <definedName name="discount_rate" refersTo="='Assumptions'!$C$14"/>
+      <definedName name="fixed_opex" refersTo="='Capex'!$H$5"/>
+      <definedName name="inflation" refersTo="='Assumptions'!$C$7"/>
+      <definedName name="subtotal_capex" refersTo="='Capex'!$D$5"/>
+    </definedNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="5">
+          <cell r="D5">
+            <v>2030</v>
+          </cell>
+          <cell r="H5">
+            <v>17.632999999999999</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1">
+        <row r="5">
+          <cell r="C5">
+            <v>0.25</v>
+          </cell>
+          <cell r="D5" t="str">
+            <v>decimal</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="C7">
+            <v>0.04</v>
+          </cell>
+        </row>
+        <row r="14">
+          <cell r="C14">
+            <v>0.1</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink3.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="Depreciation_Schedule"/>
+      <sheetName val="Debt_Amortisation"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="1">
+          <cell r="A1" t="str">
+            <v>year</v>
+          </cell>
+          <cell r="K1" t="str">
+            <v>total_depreciation</v>
+          </cell>
+        </row>
+        <row r="2">
+          <cell r="A2">
+            <v>0</v>
+          </cell>
+          <cell r="K2">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="A3">
+            <v>1</v>
+          </cell>
+          <cell r="K3">
+            <v>99.275000000000006</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="A4">
+            <v>2</v>
+          </cell>
+          <cell r="K4">
+            <v>99.275000000000006</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="A5">
+            <v>3</v>
+          </cell>
+          <cell r="K5">
+            <v>99.275000000000006</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="A6">
+            <v>4</v>
+          </cell>
+          <cell r="K6">
+            <v>99.275000000000006</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="A7">
+            <v>5</v>
+          </cell>
+          <cell r="K7">
+            <v>99.275000000000006</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="A8">
+            <v>6</v>
+          </cell>
+          <cell r="K8">
+            <v>99.275000000000006</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="A9">
+            <v>7</v>
+          </cell>
+          <cell r="K9">
+            <v>99.275000000000006</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="A10">
+            <v>8</v>
+          </cell>
+          <cell r="K10">
+            <v>99.275000000000006</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="A11">
+            <v>9</v>
+          </cell>
+          <cell r="K11">
+            <v>99.275000000000006</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="A12">
+            <v>10</v>
+          </cell>
+          <cell r="K12">
+            <v>93.574999999999989</v>
+          </cell>
+        </row>
+        <row r="13">
+          <cell r="A13">
+            <v>11</v>
+          </cell>
+          <cell r="K13">
+            <v>93.574999999999989</v>
+          </cell>
+        </row>
+        <row r="14">
+          <cell r="A14">
+            <v>12</v>
+          </cell>
+          <cell r="K14">
+            <v>93.574999999999989</v>
+          </cell>
+        </row>
+        <row r="15">
+          <cell r="A15">
+            <v>13</v>
+          </cell>
+          <cell r="K15">
+            <v>93.574999999999989</v>
+          </cell>
+        </row>
+        <row r="16">
+          <cell r="A16">
+            <v>14</v>
+          </cell>
+          <cell r="K16">
+            <v>93.574999999999989</v>
+          </cell>
+        </row>
+        <row r="17">
+          <cell r="A17">
+            <v>15</v>
+          </cell>
+          <cell r="K17">
+            <v>93.574999999999989</v>
+          </cell>
+        </row>
+        <row r="18">
+          <cell r="A18">
+            <v>16</v>
+          </cell>
+          <cell r="K18">
+            <v>93.574999999999989</v>
+          </cell>
+        </row>
+        <row r="19">
+          <cell r="A19">
+            <v>17</v>
+          </cell>
+          <cell r="K19">
+            <v>93.574999999999989</v>
+          </cell>
+        </row>
+        <row r="20">
+          <cell r="A20">
+            <v>18</v>
+          </cell>
+          <cell r="K20">
+            <v>93.574999999999989</v>
+          </cell>
+        </row>
+        <row r="21">
+          <cell r="A21">
+            <v>19</v>
+          </cell>
+          <cell r="K21">
+            <v>93.574999999999989</v>
+          </cell>
+        </row>
+        <row r="22">
+          <cell r="A22">
+            <v>20</v>
+          </cell>
+          <cell r="K22">
+            <v>93.574999999999989</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1">
+        <row r="1">
+          <cell r="A1" t="str">
+            <v>year</v>
+          </cell>
+          <cell r="C1" t="str">
+            <v>interest</v>
+          </cell>
+          <cell r="E1" t="str">
+            <v>principal_repaid</v>
+          </cell>
+        </row>
+        <row r="2">
+          <cell r="A2">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="A3">
+            <v>1</v>
+          </cell>
+          <cell r="C3">
+            <v>134.995</v>
+          </cell>
+          <cell r="E3">
+            <v>91.322201514115136</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="A4">
+            <v>2</v>
+          </cell>
+          <cell r="C4">
+            <v>126.31939085615907</v>
+          </cell>
+          <cell r="E4">
+            <v>99.997810657956066</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="A5">
+            <v>3</v>
+          </cell>
+          <cell r="C5">
+            <v>116.81959884365325</v>
+          </cell>
+          <cell r="E5">
+            <v>109.49760267046189</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="A6">
+            <v>4</v>
+          </cell>
+          <cell r="C6">
+            <v>106.41732658995937</v>
+          </cell>
+          <cell r="E6">
+            <v>119.89987492415577</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="A7">
+            <v>5</v>
+          </cell>
+          <cell r="C7">
+            <v>95.02683847216457</v>
+          </cell>
+          <cell r="E7">
+            <v>131.29036304195057</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="A8">
+            <v>6</v>
+          </cell>
+          <cell r="C8">
+            <v>82.554253983179279</v>
+          </cell>
+          <cell r="E8">
+            <v>143.76294753093586</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="A9">
+            <v>7</v>
+          </cell>
+          <cell r="C9">
+            <v>68.896773967740373</v>
+          </cell>
+          <cell r="E9">
+            <v>157.42042754637475</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="A10">
+            <v>8</v>
+          </cell>
+          <cell r="C10">
+            <v>53.941833350834763</v>
+          </cell>
+          <cell r="E10">
+            <v>172.37536816328037</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="A11">
+            <v>9</v>
+          </cell>
+          <cell r="C11">
+            <v>37.566173375323132</v>
+          </cell>
+          <cell r="E11">
+            <v>188.75102813879201</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="A12">
+            <v>10</v>
+          </cell>
+          <cell r="C12">
+            <v>19.634825702137888</v>
+          </cell>
+          <cell r="E12">
+            <v>206.68237581197724</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <person displayName="Lucy Malmud" id="{5C378310-F3DF-C348-A1DB-126FD613D66D}" userId="S::lmalmud2@jh.edu::698e3534-dd3c-4c20-9ec4-5e1d8aad22aa" providerId="AD"/>
+</personList>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -462,113 +1028,1318 @@
 </a:theme>
 </file>
 
+<file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="A5" dT="2025-05-29T12:32:05.50" personId="{5C378310-F3DF-C348-A1DB-126FD613D66D}" id="{95EFAD43-04F6-A74D-A69C-4F78BDB1E99F}">
+    <text>Adjusted for inflation each year</text>
+  </threadedComment>
+  <threadedComment ref="A22" dT="2025-05-29T13:00:34.58" personId="{5C378310-F3DF-C348-A1DB-126FD613D66D}" id="{E1FE58F2-E999-1441-B1CF-5BCC1600FC2A}">
+    <text>Number of years until cumulative cash flow is positive - not expected to be immediate, values are likely off</text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
+<file path=xl/threadedComments/threadedComment2.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="A5" dT="2025-05-29T12:32:05.50" personId="{5C378310-F3DF-C348-A1DB-126FD613D66D}" id="{126B3E98-8B15-1C4D-AB98-2D2D070DF9C9}">
+    <text>Adjusted for inflation each year</text>
+  </threadedComment>
+  <threadedComment ref="A22" dT="2025-05-29T13:00:34.58" personId="{5C378310-F3DF-C348-A1DB-126FD613D66D}" id="{AC9E65DC-B4DF-4141-BD98-533966914353}">
+    <text>Number of years until cumulative cash flow is positive - not expected to be immediate, values are likely off</text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
+<file path=xl/threadedComments/threadedComment3.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="A5" dT="2025-05-29T12:32:05.50" personId="{5C378310-F3DF-C348-A1DB-126FD613D66D}" id="{6BC89D4B-D22E-634F-97B7-C60690853C02}">
+    <text>Adjusted for inflation each year</text>
+  </threadedComment>
+  <threadedComment ref="A22" dT="2025-05-29T13:00:34.58" personId="{5C378310-F3DF-C348-A1DB-126FD613D66D}" id="{19431FD1-7FD4-9843-A8E8-55A5E2FE395F}">
+    <text>Number of years until cumulative cash flow is positive - not expected to be immediate, values are likely off</text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFD34F95-0133-9445-9436-4C25E3326ACC}">
-  <dimension ref="A1:B20"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFD34F95-0133-9445-9436-4C25E3326ACC}">
+  <dimension ref="A1:G24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="21.6640625" customWidth="1"/>
+    <col min="2" max="2" width="22.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1">
+        <v>0</v>
+      </c>
+      <c r="C1">
+        <f>B1+1</f>
         <v>1</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D1">
+        <f t="shared" ref="D1:K1" si="0">C1+1</f>
+        <v>2</v>
+      </c>
+      <c r="E1">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="F1">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="G1">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+      <c r="C4">
+        <f>_xlfn.XLOOKUP($B$2,[1]Totals!$F:$F,[1]Totals!$C:$C)</f>
+        <v>57601438.799999997</v>
+      </c>
+      <c r="D4">
+        <f>_xlfn.XLOOKUP($B$2,[1]Totals!$F:$F,[1]Totals!$C:$C)</f>
+        <v>57601438.799999997</v>
+      </c>
+      <c r="E4">
+        <f>_xlfn.XLOOKUP($B$2,[1]Totals!$F:$F,[1]Totals!$C:$C)</f>
+        <v>57601438.799999997</v>
+      </c>
+      <c r="F4">
+        <f>_xlfn.XLOOKUP($B$2,[1]Totals!$F:$F,[1]Totals!$C:$C)</f>
+        <v>57601438.799999997</v>
+      </c>
+      <c r="G4">
+        <f>_xlfn.XLOOKUP($B$2,[1]Totals!$F:$F,[1]Totals!$C:$C)</f>
+        <v>57601438.799999997</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
+      <c r="C5" cm="1">
+        <f t="array" ref="C5">[2]!fixed_opex*(1+[2]!inflation)^(C1-1)</f>
+        <v>17.632999999999999</v>
+      </c>
+      <c r="D5" cm="1">
+        <f t="array" ref="D5">[2]!fixed_opex*(1+[2]!inflation)^(D1-1)</f>
+        <v>18.33832</v>
+      </c>
+      <c r="E5" cm="1">
+        <f t="array" ref="E5">[2]!fixed_opex*(1+[2]!inflation)^(E1-1)</f>
+        <v>19.071852800000002</v>
+      </c>
+      <c r="F5" cm="1">
+        <f t="array" ref="F5">[2]!fixed_opex*(1+[2]!inflation)^(F1-1)</f>
+        <v>19.834726912000001</v>
+      </c>
+      <c r="G5" cm="1">
+        <f t="array" ref="G5">[2]!fixed_opex*(1+[2]!inflation)^(G1-1)</f>
+        <v>20.628115988480001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
+      <c r="C6">
+        <f>C4-C5</f>
+        <v>57601421.166999996</v>
+      </c>
+      <c r="D6">
+        <f t="shared" ref="D6:G6" si="1">D4-D5</f>
+        <v>57601420.461679995</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="1"/>
+        <v>57601419.728147194</v>
+      </c>
+      <c r="F6">
+        <f t="shared" si="1"/>
+        <v>57601418.965273082</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="1"/>
+        <v>57601418.171884008</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
+      <c r="C7">
+        <f>_xlfn.XLOOKUP(C1,[3]Depreciation_Schedule!$A:$A,[3]Depreciation_Schedule!$K:$K)</f>
+        <v>99.275000000000006</v>
+      </c>
+      <c r="D7">
+        <f>_xlfn.XLOOKUP(D1,[3]Depreciation_Schedule!$A:$A,[3]Depreciation_Schedule!$K:$K)</f>
+        <v>99.275000000000006</v>
+      </c>
+      <c r="E7">
+        <f>_xlfn.XLOOKUP(E1,[3]Depreciation_Schedule!$A:$A,[3]Depreciation_Schedule!$K:$K)</f>
+        <v>99.275000000000006</v>
+      </c>
+      <c r="F7">
+        <f>_xlfn.XLOOKUP(F1,[3]Depreciation_Schedule!$A:$A,[3]Depreciation_Schedule!$K:$K)</f>
+        <v>99.275000000000006</v>
+      </c>
+      <c r="G7">
+        <f>_xlfn.XLOOKUP(G1,[3]Depreciation_Schedule!$A:$A,[3]Depreciation_Schedule!$K:$K)</f>
+        <v>99.275000000000006</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
+      <c r="C8">
+        <f>C6-C7</f>
+        <v>57601321.891999997</v>
+      </c>
+      <c r="D8">
+        <f t="shared" ref="D8:G8" si="2">D6-D7</f>
+        <v>57601321.186679997</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="2"/>
+        <v>57601320.453147195</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="2"/>
+        <v>57601319.690273084</v>
+      </c>
+      <c r="G8">
+        <f>G6-G7</f>
+        <v>57601318.896884009</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
+      <c r="C9">
+        <f>_xlfn.XLOOKUP(C1,[3]Debt_Amortisation!$A:$A,[3]Debt_Amortisation!$C:$C)</f>
+        <v>134.995</v>
+      </c>
+      <c r="D9">
+        <f>_xlfn.XLOOKUP(D1,[3]Debt_Amortisation!$A:$A,[3]Debt_Amortisation!$C:$C)</f>
+        <v>126.31939085615907</v>
+      </c>
+      <c r="E9">
+        <f>_xlfn.XLOOKUP(E1,[3]Debt_Amortisation!$A:$A,[3]Debt_Amortisation!$C:$C)</f>
+        <v>116.81959884365325</v>
+      </c>
+      <c r="F9">
+        <f>_xlfn.XLOOKUP(F1,[3]Debt_Amortisation!$A:$A,[3]Debt_Amortisation!$C:$C)</f>
+        <v>106.41732658995937</v>
+      </c>
+      <c r="G9">
+        <f>_xlfn.XLOOKUP(G1,[3]Debt_Amortisation!$A:$A,[3]Debt_Amortisation!$C:$C)</f>
+        <v>95.02683847216457</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
+      <c r="C10">
+        <f>C8-C9</f>
+        <v>57601186.897</v>
+      </c>
+      <c r="D10">
+        <f t="shared" ref="D10:G10" si="3">D8-D9</f>
+        <v>57601194.867289141</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="3"/>
+        <v>57601203.633548349</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="3"/>
+        <v>57601213.272946492</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="3"/>
+        <v>57601223.870045535</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
+      <c r="C11">
+        <f>MAX(0, C10*[2]Assumptions!$C$5)</f>
+        <v>14400296.72425</v>
+      </c>
+      <c r="D11">
+        <f>MAX(0, D10*[2]Assumptions!$C$5)</f>
+        <v>14400298.716822285</v>
+      </c>
+      <c r="E11">
+        <f>MAX(0, E10*[2]Assumptions!$C$5)</f>
+        <v>14400300.908387087</v>
+      </c>
+      <c r="F11">
+        <f>MAX(0, F10*[2]Assumptions!$C$5)</f>
+        <v>14400303.318236623</v>
+      </c>
+      <c r="G11">
+        <f>MAX(0, G10*[2]Assumptions!$C$5)</f>
+        <v>14400305.967511384</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
+      <c r="C12">
+        <f>C10-C11</f>
+        <v>43200890.172749996</v>
+      </c>
+      <c r="D12">
+        <f t="shared" ref="D12:G12" si="4">D10-D11</f>
+        <v>43200896.150466859</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="4"/>
+        <v>43200902.725161262</v>
+      </c>
+      <c r="F12">
+        <f t="shared" si="4"/>
+        <v>43200909.954709873</v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="4"/>
+        <v>43200917.90253415</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
+      <c r="C13">
+        <f>C7</f>
+        <v>99.275000000000006</v>
+      </c>
+      <c r="D13">
+        <f t="shared" ref="D13:G13" si="5">D7</f>
+        <v>99.275000000000006</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="5"/>
+        <v>99.275000000000006</v>
+      </c>
+      <c r="F13">
+        <f t="shared" si="5"/>
+        <v>99.275000000000006</v>
+      </c>
+      <c r="G13">
+        <f t="shared" si="5"/>
+        <v>99.275000000000006</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C14">
+        <f>_xlfn.XLOOKUP(C1,[3]Debt_Amortisation!$A:$A,[3]Debt_Amortisation!$E:$E)</f>
+        <v>91.322201514115136</v>
+      </c>
+      <c r="D14">
+        <f>_xlfn.XLOOKUP(D1,[3]Debt_Amortisation!$A:$A,[3]Debt_Amortisation!$E:$E)</f>
+        <v>99.997810657956066</v>
+      </c>
+      <c r="E14">
+        <f>_xlfn.XLOOKUP(E1,[3]Debt_Amortisation!$A:$A,[3]Debt_Amortisation!$E:$E)</f>
+        <v>109.49760267046189</v>
+      </c>
+      <c r="F14">
+        <f>_xlfn.XLOOKUP(F1,[3]Debt_Amortisation!$A:$A,[3]Debt_Amortisation!$E:$E)</f>
+        <v>119.89987492415577</v>
+      </c>
+      <c r="G14">
+        <f>_xlfn.XLOOKUP(G1,[3]Debt_Amortisation!$A:$A,[3]Debt_Amortisation!$E:$E)</f>
+        <v>131.29036304195057</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
+      <c r="B15" cm="1">
+        <f t="array" ref="B15">-[2]!subtotal_capex</f>
+        <v>-2030</v>
+      </c>
+      <c r="C15">
+        <f>C12+C13-C14</f>
+        <v>43200898.125548482</v>
+      </c>
+      <c r="D15">
+        <f t="shared" ref="D15:G15" si="6">D12+D13-D14</f>
+        <v>43200895.427656204</v>
+      </c>
+      <c r="E15">
+        <f t="shared" si="6"/>
+        <v>43200892.502558589</v>
+      </c>
+      <c r="F15">
+        <f t="shared" si="6"/>
+        <v>43200889.329834945</v>
+      </c>
+      <c r="G15">
+        <f t="shared" si="6"/>
+        <v>43200885.887171105</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
+      <c r="B17">
+        <f>B15</f>
+        <v>-2030</v>
+      </c>
+      <c r="C17">
+        <f>B17+C15</f>
+        <v>43198868.125548482</v>
+      </c>
+      <c r="D17">
+        <f t="shared" ref="D17:G17" si="7">C17+D15</f>
+        <v>86399763.553204685</v>
+      </c>
+      <c r="E17">
+        <f t="shared" si="7"/>
+        <v>129600656.05576327</v>
+      </c>
+      <c r="F17">
+        <f t="shared" si="7"/>
+        <v>172801545.38559821</v>
+      </c>
+      <c r="G17">
+        <f t="shared" si="7"/>
+        <v>216002431.27276933</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
+      <c r="B19" s="1" cm="1">
+        <f t="array" ref="B19">NPV([2]!discount_rate, C15:G15)</f>
+        <v>163765372.97993264</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
+      <c r="B20" s="2">
+        <f>IRR(B15:G15)</f>
+        <v>21281.230603672837</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
+      <c r="B21">
+        <f>SUM(C12:G12)/-B15</f>
+        <v>106406.16596336066</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
         <v>18</v>
+      </c>
+      <c r="B22" cm="1">
+        <f t="array" ref="B22">MATCH(TRUE, C17:G17&gt;0, 0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <ignoredErrors>
+    <ignoredError sqref="C7" formula="1"/>
+  </ignoredErrors>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8234F39-5E44-984E-B8C7-CCAE3B9A3DD2}">
+  <dimension ref="A1:G22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:H23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="20" customWidth="1"/>
+    <col min="2" max="2" width="27.1640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1">
+        <v>0</v>
+      </c>
+      <c r="C1">
+        <f>B1+1</f>
+        <v>1</v>
+      </c>
+      <c r="D1">
+        <f t="shared" ref="D1:H1" si="0">C1+1</f>
+        <v>2</v>
+      </c>
+      <c r="E1">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="F1">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="G1">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <f>_xlfn.XLOOKUP($B$2,[1]Totals!$F:$F,[1]Totals!$C:$C)</f>
+        <v>54523237.600000001</v>
+      </c>
+      <c r="D4">
+        <f>_xlfn.XLOOKUP($B$2,[1]Totals!$F:$F,[1]Totals!$C:$C)</f>
+        <v>54523237.600000001</v>
+      </c>
+      <c r="E4">
+        <f>_xlfn.XLOOKUP($B$2,[1]Totals!$F:$F,[1]Totals!$C:$C)</f>
+        <v>54523237.600000001</v>
+      </c>
+      <c r="F4">
+        <f>_xlfn.XLOOKUP($B$2,[1]Totals!$F:$F,[1]Totals!$C:$C)</f>
+        <v>54523237.600000001</v>
+      </c>
+      <c r="G4">
+        <f>_xlfn.XLOOKUP($B$2,[1]Totals!$F:$F,[1]Totals!$C:$C)</f>
+        <v>54523237.600000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" cm="1">
+        <f t="array" ref="C5">[2]!fixed_opex*(1+[2]!inflation)^(C1-1)</f>
+        <v>17.632999999999999</v>
+      </c>
+      <c r="D5" cm="1">
+        <f t="array" ref="D5">[2]!fixed_opex*(1+[2]!inflation)^(D1-1)</f>
+        <v>18.33832</v>
+      </c>
+      <c r="E5" cm="1">
+        <f t="array" ref="E5">[2]!fixed_opex*(1+[2]!inflation)^(E1-1)</f>
+        <v>19.071852800000002</v>
+      </c>
+      <c r="F5" cm="1">
+        <f t="array" ref="F5">[2]!fixed_opex*(1+[2]!inflation)^(F1-1)</f>
+        <v>19.834726912000001</v>
+      </c>
+      <c r="G5" cm="1">
+        <f t="array" ref="G5">[2]!fixed_opex*(1+[2]!inflation)^(G1-1)</f>
+        <v>20.628115988480001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6">
+        <f>C4-C5</f>
+        <v>54523219.967</v>
+      </c>
+      <c r="D6">
+        <f t="shared" ref="D6:G6" si="1">D4-D5</f>
+        <v>54523219.26168</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="1"/>
+        <v>54523218.528147198</v>
+      </c>
+      <c r="F6">
+        <f t="shared" si="1"/>
+        <v>54523217.765273087</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="1"/>
+        <v>54523216.971884012</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7">
+        <f>_xlfn.XLOOKUP(C1,[3]Depreciation_Schedule!$A:$A,[3]Depreciation_Schedule!$K:$K)</f>
+        <v>99.275000000000006</v>
+      </c>
+      <c r="D7">
+        <f>_xlfn.XLOOKUP(D1,[3]Depreciation_Schedule!$A:$A,[3]Depreciation_Schedule!$K:$K)</f>
+        <v>99.275000000000006</v>
+      </c>
+      <c r="E7">
+        <f>_xlfn.XLOOKUP(E1,[3]Depreciation_Schedule!$A:$A,[3]Depreciation_Schedule!$K:$K)</f>
+        <v>99.275000000000006</v>
+      </c>
+      <c r="F7">
+        <f>_xlfn.XLOOKUP(F1,[3]Depreciation_Schedule!$A:$A,[3]Depreciation_Schedule!$K:$K)</f>
+        <v>99.275000000000006</v>
+      </c>
+      <c r="G7">
+        <f>_xlfn.XLOOKUP(G1,[3]Depreciation_Schedule!$A:$A,[3]Depreciation_Schedule!$K:$K)</f>
+        <v>99.275000000000006</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8">
+        <f>C6-C7</f>
+        <v>54523120.692000002</v>
+      </c>
+      <c r="D8">
+        <f t="shared" ref="D8:F8" si="2">D6-D7</f>
+        <v>54523119.986680001</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="2"/>
+        <v>54523119.2531472</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="2"/>
+        <v>54523118.490273088</v>
+      </c>
+      <c r="G8">
+        <f>G6-G7</f>
+        <v>54523117.696884014</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9">
+        <f>_xlfn.XLOOKUP(C1,[3]Debt_Amortisation!$A:$A,[3]Debt_Amortisation!$C:$C)</f>
+        <v>134.995</v>
+      </c>
+      <c r="D9">
+        <f>_xlfn.XLOOKUP(D1,[3]Debt_Amortisation!$A:$A,[3]Debt_Amortisation!$C:$C)</f>
+        <v>126.31939085615907</v>
+      </c>
+      <c r="E9">
+        <f>_xlfn.XLOOKUP(E1,[3]Debt_Amortisation!$A:$A,[3]Debt_Amortisation!$C:$C)</f>
+        <v>116.81959884365325</v>
+      </c>
+      <c r="F9">
+        <f>_xlfn.XLOOKUP(F1,[3]Debt_Amortisation!$A:$A,[3]Debt_Amortisation!$C:$C)</f>
+        <v>106.41732658995937</v>
+      </c>
+      <c r="G9">
+        <f>_xlfn.XLOOKUP(G1,[3]Debt_Amortisation!$A:$A,[3]Debt_Amortisation!$C:$C)</f>
+        <v>95.02683847216457</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10">
+        <f>C8-C9</f>
+        <v>54522985.697000004</v>
+      </c>
+      <c r="D10">
+        <f t="shared" ref="D10:G10" si="3">D8-D9</f>
+        <v>54522993.667289145</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="3"/>
+        <v>54523002.433548354</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="3"/>
+        <v>54523012.072946496</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="3"/>
+        <v>54523022.67004554</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11">
+        <f>MAX(0, C10*[2]Assumptions!$C$5)</f>
+        <v>13630746.424250001</v>
+      </c>
+      <c r="D11">
+        <f>MAX(0, D10*[2]Assumptions!$C$5)</f>
+        <v>13630748.416822286</v>
+      </c>
+      <c r="E11">
+        <f>MAX(0, E10*[2]Assumptions!$C$5)</f>
+        <v>13630750.608387088</v>
+      </c>
+      <c r="F11">
+        <f>MAX(0, F10*[2]Assumptions!$C$5)</f>
+        <v>13630753.018236624</v>
+      </c>
+      <c r="G11">
+        <f>MAX(0, G10*[2]Assumptions!$C$5)</f>
+        <v>13630755.667511385</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12">
+        <f>C10-C11</f>
+        <v>40892239.272750005</v>
+      </c>
+      <c r="D12">
+        <f t="shared" ref="D12:G12" si="4">D10-D11</f>
+        <v>40892245.250466861</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="4"/>
+        <v>40892251.825161263</v>
+      </c>
+      <c r="F12">
+        <f t="shared" si="4"/>
+        <v>40892259.054709874</v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="4"/>
+        <v>40892267.002534151</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>4</v>
+      </c>
+      <c r="C13">
+        <f>C7</f>
+        <v>99.275000000000006</v>
+      </c>
+      <c r="D13">
+        <f t="shared" ref="D13:G13" si="5">D7</f>
+        <v>99.275000000000006</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="5"/>
+        <v>99.275000000000006</v>
+      </c>
+      <c r="F13">
+        <f t="shared" si="5"/>
+        <v>99.275000000000006</v>
+      </c>
+      <c r="G13">
+        <f t="shared" si="5"/>
+        <v>99.275000000000006</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14">
+        <f>_xlfn.XLOOKUP(C1,[3]Debt_Amortisation!$A:$A,[3]Debt_Amortisation!$E:$E)</f>
+        <v>91.322201514115136</v>
+      </c>
+      <c r="D14">
+        <f>_xlfn.XLOOKUP(D1,[3]Debt_Amortisation!$A:$A,[3]Debt_Amortisation!$E:$E)</f>
+        <v>99.997810657956066</v>
+      </c>
+      <c r="E14">
+        <f>_xlfn.XLOOKUP(E1,[3]Debt_Amortisation!$A:$A,[3]Debt_Amortisation!$E:$E)</f>
+        <v>109.49760267046189</v>
+      </c>
+      <c r="F14">
+        <f>_xlfn.XLOOKUP(F1,[3]Debt_Amortisation!$A:$A,[3]Debt_Amortisation!$E:$E)</f>
+        <v>119.89987492415577</v>
+      </c>
+      <c r="G14">
+        <f>_xlfn.XLOOKUP(G1,[3]Debt_Amortisation!$A:$A,[3]Debt_Amortisation!$E:$E)</f>
+        <v>131.29036304195057</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15" cm="1">
+        <f t="array" ref="B15">-[2]!subtotal_capex</f>
+        <v>-2030</v>
+      </c>
+      <c r="C15">
+        <f>C12+C13-C14</f>
+        <v>40892247.225548491</v>
+      </c>
+      <c r="D15">
+        <f t="shared" ref="D15:G15" si="6">D12+D13-D14</f>
+        <v>40892244.527656205</v>
+      </c>
+      <c r="E15">
+        <f t="shared" si="6"/>
+        <v>40892241.60255859</v>
+      </c>
+      <c r="F15">
+        <f t="shared" si="6"/>
+        <v>40892238.429834947</v>
+      </c>
+      <c r="G15">
+        <f t="shared" si="6"/>
+        <v>40892234.987171106</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>14</v>
+      </c>
+      <c r="B17">
+        <f>B15</f>
+        <v>-2030</v>
+      </c>
+      <c r="C17">
+        <f>B17+C15</f>
+        <v>40890217.225548491</v>
+      </c>
+      <c r="D17">
+        <f t="shared" ref="D17:G17" si="7">C17+D15</f>
+        <v>81782461.753204703</v>
+      </c>
+      <c r="E17">
+        <f t="shared" si="7"/>
+        <v>122674703.35576329</v>
+      </c>
+      <c r="F17">
+        <f t="shared" si="7"/>
+        <v>163566941.78559822</v>
+      </c>
+      <c r="G17">
+        <f t="shared" si="7"/>
+        <v>204459176.77276933</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>15</v>
+      </c>
+      <c r="B19" s="1" cm="1">
+        <f t="array" ref="B19">NPV([2]!discount_rate, C15:G15)</f>
+        <v>155013769.69302973</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>16</v>
+      </c>
+      <c r="B20" s="2">
+        <f>IRR(B15:G15)</f>
+        <v>20143.964150451942</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>17</v>
+      </c>
+      <c r="B21">
+        <f>SUM(C12:G12)/-B15</f>
+        <v>100719.83369735081</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>18</v>
+      </c>
+      <c r="B22" cm="1">
+        <f t="array" ref="B22">MATCH(TRUE, C17:G17&gt;0, 0)</f>
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A756CA4-3E9F-D243-87CE-D7568CEC2E0C}">
+  <dimension ref="A1:G22"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="19.5" customWidth="1"/>
+    <col min="2" max="2" width="24" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1">
+        <v>0</v>
+      </c>
+      <c r="C1">
+        <f>B1+1</f>
+        <v>1</v>
+      </c>
+      <c r="D1">
+        <f t="shared" ref="D1:H1" si="0">C1+1</f>
+        <v>2</v>
+      </c>
+      <c r="E1">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="F1">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="G1">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <f>_xlfn.XLOOKUP($B$2,[1]Totals!$F:$F,[1]Totals!$C:$C)</f>
+        <v>49367804</v>
+      </c>
+      <c r="D4">
+        <f>_xlfn.XLOOKUP($B$2,[1]Totals!$F:$F,[1]Totals!$C:$C)</f>
+        <v>49367804</v>
+      </c>
+      <c r="E4">
+        <f>_xlfn.XLOOKUP($B$2,[1]Totals!$F:$F,[1]Totals!$C:$C)</f>
+        <v>49367804</v>
+      </c>
+      <c r="F4">
+        <f>_xlfn.XLOOKUP($B$2,[1]Totals!$F:$F,[1]Totals!$C:$C)</f>
+        <v>49367804</v>
+      </c>
+      <c r="G4">
+        <f>_xlfn.XLOOKUP($B$2,[1]Totals!$F:$F,[1]Totals!$C:$C)</f>
+        <v>49367804</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" cm="1">
+        <f t="array" ref="C5">[2]!fixed_opex*(1+[2]!inflation)^(C1-1)</f>
+        <v>17.632999999999999</v>
+      </c>
+      <c r="D5" cm="1">
+        <f t="array" ref="D5">[2]!fixed_opex*(1+[2]!inflation)^(D1-1)</f>
+        <v>18.33832</v>
+      </c>
+      <c r="E5" cm="1">
+        <f t="array" ref="E5">[2]!fixed_opex*(1+[2]!inflation)^(E1-1)</f>
+        <v>19.071852800000002</v>
+      </c>
+      <c r="F5" cm="1">
+        <f t="array" ref="F5">[2]!fixed_opex*(1+[2]!inflation)^(F1-1)</f>
+        <v>19.834726912000001</v>
+      </c>
+      <c r="G5" cm="1">
+        <f t="array" ref="G5">[2]!fixed_opex*(1+[2]!inflation)^(G1-1)</f>
+        <v>20.628115988480001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6">
+        <f>C4-C5</f>
+        <v>49367786.366999999</v>
+      </c>
+      <c r="D6">
+        <f t="shared" ref="D6:G6" si="1">D4-D5</f>
+        <v>49367785.661679998</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="1"/>
+        <v>49367784.928147197</v>
+      </c>
+      <c r="F6">
+        <f t="shared" si="1"/>
+        <v>49367784.165273085</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="1"/>
+        <v>49367783.371884011</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7">
+        <f>_xlfn.XLOOKUP(C1,[3]Depreciation_Schedule!$A:$A,[3]Depreciation_Schedule!$K:$K)</f>
+        <v>99.275000000000006</v>
+      </c>
+      <c r="D7">
+        <f>_xlfn.XLOOKUP(D1,[3]Depreciation_Schedule!$A:$A,[3]Depreciation_Schedule!$K:$K)</f>
+        <v>99.275000000000006</v>
+      </c>
+      <c r="E7">
+        <f>_xlfn.XLOOKUP(E1,[3]Depreciation_Schedule!$A:$A,[3]Depreciation_Schedule!$K:$K)</f>
+        <v>99.275000000000006</v>
+      </c>
+      <c r="F7">
+        <f>_xlfn.XLOOKUP(F1,[3]Depreciation_Schedule!$A:$A,[3]Depreciation_Schedule!$K:$K)</f>
+        <v>99.275000000000006</v>
+      </c>
+      <c r="G7">
+        <f>_xlfn.XLOOKUP(G1,[3]Depreciation_Schedule!$A:$A,[3]Depreciation_Schedule!$K:$K)</f>
+        <v>99.275000000000006</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8">
+        <f>C6-C7</f>
+        <v>49367687.092</v>
+      </c>
+      <c r="D8">
+        <f t="shared" ref="D8:F8" si="2">D6-D7</f>
+        <v>49367686.38668</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="2"/>
+        <v>49367685.653147198</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="2"/>
+        <v>49367684.890273087</v>
+      </c>
+      <c r="G8">
+        <f>G6-G7</f>
+        <v>49367684.096884012</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9">
+        <f>_xlfn.XLOOKUP(C1,[3]Debt_Amortisation!$A:$A,[3]Debt_Amortisation!$C:$C)</f>
+        <v>134.995</v>
+      </c>
+      <c r="D9">
+        <f>_xlfn.XLOOKUP(D1,[3]Debt_Amortisation!$A:$A,[3]Debt_Amortisation!$C:$C)</f>
+        <v>126.31939085615907</v>
+      </c>
+      <c r="E9">
+        <f>_xlfn.XLOOKUP(E1,[3]Debt_Amortisation!$A:$A,[3]Debt_Amortisation!$C:$C)</f>
+        <v>116.81959884365325</v>
+      </c>
+      <c r="F9">
+        <f>_xlfn.XLOOKUP(F1,[3]Debt_Amortisation!$A:$A,[3]Debt_Amortisation!$C:$C)</f>
+        <v>106.41732658995937</v>
+      </c>
+      <c r="G9">
+        <f>_xlfn.XLOOKUP(G1,[3]Debt_Amortisation!$A:$A,[3]Debt_Amortisation!$C:$C)</f>
+        <v>95.02683847216457</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10">
+        <f>C8-C9</f>
+        <v>49367552.097000003</v>
+      </c>
+      <c r="D10">
+        <f t="shared" ref="D10:G10" si="3">D8-D9</f>
+        <v>49367560.067289144</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="3"/>
+        <v>49367568.833548352</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="3"/>
+        <v>49367578.472946495</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="3"/>
+        <v>49367589.070045538</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11">
+        <f>MAX(0, C10*[2]Assumptions!$C$5)</f>
+        <v>12341888.024250001</v>
+      </c>
+      <c r="D11">
+        <f>MAX(0, D10*[2]Assumptions!$C$5)</f>
+        <v>12341890.016822286</v>
+      </c>
+      <c r="E11">
+        <f>MAX(0, E10*[2]Assumptions!$C$5)</f>
+        <v>12341892.208387088</v>
+      </c>
+      <c r="F11">
+        <f>MAX(0, F10*[2]Assumptions!$C$5)</f>
+        <v>12341894.618236624</v>
+      </c>
+      <c r="G11">
+        <f>MAX(0, G10*[2]Assumptions!$C$5)</f>
+        <v>12341897.267511385</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12">
+        <f>C10-C11</f>
+        <v>37025664.072750002</v>
+      </c>
+      <c r="D12">
+        <f t="shared" ref="D12:G12" si="4">D10-D11</f>
+        <v>37025670.050466858</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="4"/>
+        <v>37025676.62516126</v>
+      </c>
+      <c r="F12">
+        <f t="shared" si="4"/>
+        <v>37025683.854709871</v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="4"/>
+        <v>37025691.802534156</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>4</v>
+      </c>
+      <c r="C13">
+        <f>C7</f>
+        <v>99.275000000000006</v>
+      </c>
+      <c r="D13">
+        <f t="shared" ref="D13:G13" si="5">D7</f>
+        <v>99.275000000000006</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="5"/>
+        <v>99.275000000000006</v>
+      </c>
+      <c r="F13">
+        <f t="shared" si="5"/>
+        <v>99.275000000000006</v>
+      </c>
+      <c r="G13">
+        <f t="shared" si="5"/>
+        <v>99.275000000000006</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14">
+        <f>_xlfn.XLOOKUP(C1,[3]Debt_Amortisation!$A:$A,[3]Debt_Amortisation!$E:$E)</f>
+        <v>91.322201514115136</v>
+      </c>
+      <c r="D14">
+        <f>_xlfn.XLOOKUP(D1,[3]Debt_Amortisation!$A:$A,[3]Debt_Amortisation!$E:$E)</f>
+        <v>99.997810657956066</v>
+      </c>
+      <c r="E14">
+        <f>_xlfn.XLOOKUP(E1,[3]Debt_Amortisation!$A:$A,[3]Debt_Amortisation!$E:$E)</f>
+        <v>109.49760267046189</v>
+      </c>
+      <c r="F14">
+        <f>_xlfn.XLOOKUP(F1,[3]Debt_Amortisation!$A:$A,[3]Debt_Amortisation!$E:$E)</f>
+        <v>119.89987492415577</v>
+      </c>
+      <c r="G14">
+        <f>_xlfn.XLOOKUP(G1,[3]Debt_Amortisation!$A:$A,[3]Debt_Amortisation!$E:$E)</f>
+        <v>131.29036304195057</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15" cm="1">
+        <f t="array" ref="B15">-[2]!subtotal_capex</f>
+        <v>-2030</v>
+      </c>
+      <c r="C15">
+        <f>C12+C13-C14</f>
+        <v>37025672.025548488</v>
+      </c>
+      <c r="D15">
+        <f t="shared" ref="D15:G15" si="6">D12+D13-D14</f>
+        <v>37025669.327656202</v>
+      </c>
+      <c r="E15">
+        <f t="shared" si="6"/>
+        <v>37025666.402558587</v>
+      </c>
+      <c r="F15">
+        <f t="shared" si="6"/>
+        <v>37025663.229834944</v>
+      </c>
+      <c r="G15">
+        <f t="shared" si="6"/>
+        <v>37025659.787171111</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>14</v>
+      </c>
+      <c r="B17">
+        <f>B15</f>
+        <v>-2030</v>
+      </c>
+      <c r="C17">
+        <f>B17+C15</f>
+        <v>37023642.025548488</v>
+      </c>
+      <c r="D17">
+        <f t="shared" ref="D17:G17" si="7">C17+D15</f>
+        <v>74049311.353204697</v>
+      </c>
+      <c r="E17">
+        <f t="shared" si="7"/>
+        <v>111074977.75576329</v>
+      </c>
+      <c r="F17">
+        <f t="shared" si="7"/>
+        <v>148100640.98559824</v>
+      </c>
+      <c r="G17">
+        <f t="shared" si="7"/>
+        <v>185126300.77276933</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>15</v>
+      </c>
+      <c r="B19" s="1" cm="1">
+        <f t="array" ref="B19">NPV([2]!discount_rate, C15:G15)</f>
+        <v>140356407.58194691</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>16</v>
+      </c>
+      <c r="B20" s="2">
+        <f>IRR(B15:G15)</f>
+        <v>18239.247303166576</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>17</v>
+      </c>
+      <c r="B21">
+        <f>SUM(C12:G12)/-B15</f>
+        <v>91196.249460897612</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>18</v>
+      </c>
+      <c r="B22" cm="1">
+        <f t="array" ref="B22">MATCH(TRUE, C17:G17&gt;0, 0)</f>
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/financial_projection_and_sensitivity/ROI_NPV_Payback_Hazira.xlsx
+++ b/financial_projection_and_sensitivity/ROI_NPV_Payback_Hazira.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lucymalmud/Desktop/hazira-port/financial_projection_and_sensitivity/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCCE1102-9FFD-A24E-AA01-5CA9379E91B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1B4D191-57CB-4F4E-89E9-0855D60D763E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11960" yWindow="720" windowWidth="16460" windowHeight="15180" activeTab="2" xr2:uid="{7C4D7752-87F6-D74B-989F-4854CE9FBA7F}"/>
+    <workbookView xWindow="3360" yWindow="500" windowWidth="23600" windowHeight="15180" activeTab="2" xr2:uid="{7C4D7752-87F6-D74B-989F-4854CE9FBA7F}"/>
   </bookViews>
   <sheets>
     <sheet name="CF_Conservative" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
     <externalReference r:id="rId5"/>
     <externalReference r:id="rId6"/>
   </externalReferences>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -72,11 +72,11 @@
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
-    <author>tc={126B3E98-8B15-1C4D-AB98-2D2D070DF9C9}</author>
-    <author>tc={AC9E65DC-B4DF-4141-BD98-533966914353}</author>
+    <author>tc={05B6E52B-EF4F-3746-B4A2-10B7B25A4576}</author>
+    <author>tc={0DCF5D2B-33D3-7640-A777-9E62A3CCBD11}</author>
   </authors>
   <commentList>
-    <comment ref="A5" authorId="0" shapeId="0" xr:uid="{126B3E98-8B15-1C4D-AB98-2D2D070DF9C9}">
+    <comment ref="A5" authorId="0" shapeId="0" xr:uid="{05B6E52B-EF4F-3746-B4A2-10B7B25A4576}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -84,7 +84,7 @@
     Adjusted for inflation each year</t>
       </text>
     </comment>
-    <comment ref="A22" authorId="1" shapeId="0" xr:uid="{AC9E65DC-B4DF-4141-BD98-533966914353}">
+    <comment ref="A22" authorId="1" shapeId="0" xr:uid="{0DCF5D2B-33D3-7640-A777-9E62A3CCBD11}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -99,11 +99,11 @@
 <file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
-    <author>tc={6BC89D4B-D22E-634F-97B7-C60690853C02}</author>
-    <author>tc={19431FD1-7FD4-9843-A8E8-55A5E2FE395F}</author>
+    <author>tc={CFDCFA05-B37F-E045-BF3E-3441CE7E5B64}</author>
+    <author>tc={4E215FE6-7C4B-2F48-874E-F150C26D7AD9}</author>
   </authors>
   <commentList>
-    <comment ref="A5" authorId="0" shapeId="0" xr:uid="{6BC89D4B-D22E-634F-97B7-C60690853C02}">
+    <comment ref="A5" authorId="0" shapeId="0" xr:uid="{CFDCFA05-B37F-E045-BF3E-3441CE7E5B64}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -111,7 +111,7 @@
     Adjusted for inflation each year</t>
       </text>
     </comment>
-    <comment ref="A22" authorId="1" shapeId="0" xr:uid="{19431FD1-7FD4-9843-A8E8-55A5E2FE395F}">
+    <comment ref="A22" authorId="1" shapeId="0" xr:uid="{4E215FE6-7C4B-2F48-874E-F150C26D7AD9}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -146,7 +146,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="44">
   <si>
     <t>variable_cost_savings</t>
   </si>
@@ -216,6 +216,69 @@
   <si>
     <t>ebita = earnings before interest, taxes, and amortization</t>
   </si>
+  <si>
+    <t>NPV</t>
+  </si>
+  <si>
+    <t>IRR</t>
+  </si>
+  <si>
+    <t>unit_rate_scalar</t>
+  </si>
+  <si>
+    <t>improvement_adj_pp</t>
+  </si>
+  <si>
+    <t>unit_rate</t>
+  </si>
+  <si>
+    <t>improvement_adj</t>
+  </si>
+  <si>
+    <t>helper table</t>
+  </si>
+  <si>
+    <t>driver</t>
+  </si>
+  <si>
+    <t>low NPV</t>
+  </si>
+  <si>
+    <t>high NPV</t>
+  </si>
+  <si>
+    <t>change in NPV low</t>
+  </si>
+  <si>
+    <t>change in NPV high</t>
+  </si>
+  <si>
+    <t>sensitivity table</t>
+  </si>
+  <si>
+    <t>unit rate scalar</t>
+  </si>
+  <si>
+    <t>improvement ad pp</t>
+  </si>
+  <si>
+    <t>low input</t>
+  </si>
+  <si>
+    <t>high input</t>
+  </si>
+  <si>
+    <t>NPV @ low</t>
+  </si>
+  <si>
+    <t>NPV @ high</t>
+  </si>
+  <si>
+    <t>IRR @ low</t>
+  </si>
+  <si>
+    <t>IRR @ high</t>
+  </si>
 </sst>
 </file>
 
@@ -224,7 +287,7 @@
   <numFmts count="1">
     <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -237,6 +300,13 @@
       <color rgb="FF000000"/>
       <name val="Tahoma"/>
       <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -259,10 +329,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -278,6 +349,3030 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>NPV Sensitivity - </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>±20% unit cost, ±5pp improvement</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t> </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> </a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>CF_Conservative!$A$36</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>unit_rate_scalar</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>CF_Conservative!$B$35:$C$35</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>change in NPV low</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>change in NPV high</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>CF_Conservative!$B$36:$C$36</c:f>
+              <c:numCache>
+                <c:formatCode>"$"#,##0.00_);[Red]\("$"#,##0.00\)</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>-32753215.815289542</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>32753215.815289497</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-C82B-B545-9036-AF4647D5D624}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>CF_Conservative!$A$37</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>improvement_adj</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>CF_Conservative!$B$35:$C$35</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>change in NPV low</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>change in NPV high</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>CF_Conservative!$B$37:$C$37</c:f>
+              <c:numCache>
+                <c:formatCode>"$"#,##0.00_);[Red]\("$"#,##0.00\)</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>-8188303.9538224041</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8188303.9538223743</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-C82B-B545-9036-AF4647D5D624}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:overlap val="100"/>
+        <c:axId val="1432880112"/>
+        <c:axId val="895726464"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1432880112"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="895726464"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="895726464"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1432880112"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>NPV Sensitivity - </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:solidFill>
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>±20% unit cost, ±5pp improvement</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>  </a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>CF_Moderate!$A$36</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>unit_rate_scalar</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>CF_Moderate!$B$35:$C$35</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>change in NPV low</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>change in NPV high</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>CF_Moderate!$B$36:$C$36</c:f>
+              <c:numCache>
+                <c:formatCode>"$"#,##0.00_);[Red]\("$"#,##0.00\)</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>-31002895.157908961</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>31002895.157908976</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-F9F2-5F4E-B09C-991D59ED792A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>CF_Moderate!$A$37</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>improvement_adj</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>CF_Moderate!$B$35:$C$35</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>change in NPV low</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>change in NPV high</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>CF_Moderate!$B$37:$C$37</c:f>
+              <c:numCache>
+                <c:formatCode>"$"#,##0.00_);[Red]\("$"#,##0.00\)</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>-7750723.7894772291</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7750723.7894772291</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-F9F2-5F4E-B09C-991D59ED792A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:overlap val="100"/>
+        <c:axId val="490751136"/>
+        <c:axId val="971681888"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="490751136"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="971681888"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="971681888"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="490751136"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>NPV Sensitivity - </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:solidFill>
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>±20% unit cost, ±5pp improvement</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>  </a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>CF_Aggressive!$A$36</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>unit_rate_scalar</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>CF_Aggressive!$B$35:$C$35</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>change in NPV low</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>change in NPV high</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>CF_Aggressive!$B$36:$C$36</c:f>
+              <c:numCache>
+                <c:formatCode>"$"#,##0.00_);[Red]\("$"#,##0.00\)</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>-28071422.735692397</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>28071422.735692441</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-5A37-2145-9AA7-731F23EECB3B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>CF_Aggressive!$A$37</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>improvement_adj</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>CF_Aggressive!$B$35:$C$35</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>change in NPV low</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>change in NPV high</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>CF_Aggressive!$B$37:$C$37</c:f>
+              <c:numCache>
+                <c:formatCode>"$"#,##0.00_);[Red]\("$"#,##0.00\)</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>-7017855.6839231104</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7017855.6839231253</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-5A37-2145-9AA7-731F23EECB3B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:overlap val="100"/>
+        <c:axId val="643641008"/>
+        <c:axId val="572158016"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="643641008"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="572158016"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="572158016"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="643641008"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="297">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="297">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="297">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>253999</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>170542</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>865276</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>111647</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F940B496-E290-AAD1-4D00-9F81A3E42B82}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>728132</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>101601</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1066800</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>33867</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C89398AC-9ACA-1D2B-149F-8AE1E7FAFC28}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>727880</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>201683</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>284328</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>94776</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0794DB44-CA3C-75C6-990C-C060AEC8DBA9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -700,6 +3795,9 @@
           <cell r="E12">
             <v>206.68237581197724</v>
           </cell>
+        </row>
+        <row r="13">
+          <cell r="E13"/>
         </row>
       </sheetData>
     </sheetDataSet>
@@ -1041,10 +4139,10 @@
 
 <file path=xl/threadedComments/threadedComment2.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment ref="A5" dT="2025-05-29T12:32:05.50" personId="{5C378310-F3DF-C348-A1DB-126FD613D66D}" id="{126B3E98-8B15-1C4D-AB98-2D2D070DF9C9}">
+  <threadedComment ref="A5" dT="2025-05-29T12:32:05.50" personId="{5C378310-F3DF-C348-A1DB-126FD613D66D}" id="{05B6E52B-EF4F-3746-B4A2-10B7B25A4576}">
     <text>Adjusted for inflation each year</text>
   </threadedComment>
-  <threadedComment ref="A22" dT="2025-05-29T13:00:34.58" personId="{5C378310-F3DF-C348-A1DB-126FD613D66D}" id="{AC9E65DC-B4DF-4141-BD98-533966914353}">
+  <threadedComment ref="A22" dT="2025-05-29T13:00:34.58" personId="{5C378310-F3DF-C348-A1DB-126FD613D66D}" id="{0DCF5D2B-33D3-7640-A777-9E62A3CCBD11}">
     <text>Number of years until cumulative cash flow is positive - not expected to be immediate, values are likely off</text>
   </threadedComment>
 </ThreadedComments>
@@ -1052,10 +4150,10 @@
 
 <file path=xl/threadedComments/threadedComment3.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment ref="A5" dT="2025-05-29T12:32:05.50" personId="{5C378310-F3DF-C348-A1DB-126FD613D66D}" id="{6BC89D4B-D22E-634F-97B7-C60690853C02}">
+  <threadedComment ref="A5" dT="2025-05-29T12:32:05.50" personId="{5C378310-F3DF-C348-A1DB-126FD613D66D}" id="{CFDCFA05-B37F-E045-BF3E-3441CE7E5B64}">
     <text>Adjusted for inflation each year</text>
   </threadedComment>
-  <threadedComment ref="A22" dT="2025-05-29T13:00:34.58" personId="{5C378310-F3DF-C348-A1DB-126FD613D66D}" id="{19431FD1-7FD4-9843-A8E8-55A5E2FE395F}">
+  <threadedComment ref="A22" dT="2025-05-29T13:00:34.58" personId="{5C378310-F3DF-C348-A1DB-126FD613D66D}" id="{4E215FE6-7C4B-2F48-874E-F150C26D7AD9}">
     <text>Number of years until cumulative cash flow is positive - not expected to be immediate, values are likely off</text>
   </threadedComment>
 </ThreadedComments>
@@ -1063,16 +4161,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFD34F95-0133-9445-9436-4C25E3326ACC}">
-  <dimension ref="A1:G24"/>
+  <dimension ref="A1:M37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView topLeftCell="D28" zoomScale="142" workbookViewId="0">
+      <selection activeCell="H36" sqref="H36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="21.6640625" customWidth="1"/>
     <col min="2" max="2" width="22.83203125" customWidth="1"/>
+    <col min="3" max="3" width="20.1640625" customWidth="1"/>
+    <col min="4" max="4" width="16.5" customWidth="1"/>
+    <col min="5" max="5" width="20.6640625" customWidth="1"/>
+    <col min="6" max="6" width="19.33203125" customWidth="1"/>
+    <col min="7" max="7" width="16.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
@@ -1087,7 +4190,7 @@
         <v>1</v>
       </c>
       <c r="D1">
-        <f t="shared" ref="D1:K1" si="0">C1+1</f>
+        <f t="shared" ref="D1:G1" si="0">C1+1</f>
         <v>2</v>
       </c>
       <c r="E1">
@@ -1116,23 +4219,23 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <f>_xlfn.XLOOKUP($B$2,[1]Totals!$F:$F,[1]Totals!$C:$C)</f>
+        <f>_xlfn.XLOOKUP($B$2,[1]Totals!$F:$F,[1]Totals!$C:$C) * $B$31 * (1+$B$32)</f>
         <v>57601438.799999997</v>
       </c>
       <c r="D4">
-        <f>_xlfn.XLOOKUP($B$2,[1]Totals!$F:$F,[1]Totals!$C:$C)</f>
+        <f>_xlfn.XLOOKUP($B$2,[1]Totals!$F:$F,[1]Totals!$C:$C) * $B$31 * (1+$B$32)</f>
         <v>57601438.799999997</v>
       </c>
       <c r="E4">
-        <f>_xlfn.XLOOKUP($B$2,[1]Totals!$F:$F,[1]Totals!$C:$C)</f>
+        <f>_xlfn.XLOOKUP($B$2,[1]Totals!$F:$F,[1]Totals!$C:$C) * $B$31 * (1+$B$32)</f>
         <v>57601438.799999997</v>
       </c>
       <c r="F4">
-        <f>_xlfn.XLOOKUP($B$2,[1]Totals!$F:$F,[1]Totals!$C:$C)</f>
+        <f>_xlfn.XLOOKUP($B$2,[1]Totals!$F:$F,[1]Totals!$C:$C) * $B$31 * (1+$B$32)</f>
         <v>57601438.799999997</v>
       </c>
       <c r="G4">
-        <f>_xlfn.XLOOKUP($B$2,[1]Totals!$F:$F,[1]Totals!$C:$C)</f>
+        <f>_xlfn.XLOOKUP($B$2,[1]Totals!$F:$F,[1]Totals!$C:$C) * $B$31 * (1+$B$32)</f>
         <v>57601438.799999997</v>
       </c>
     </row>
@@ -1220,7 +4323,7 @@
         <v>57601321.891999997</v>
       </c>
       <c r="D8">
-        <f t="shared" ref="D8:G8" si="2">D6-D7</f>
+        <f t="shared" ref="D8:F8" si="2">D6-D7</f>
         <v>57601321.186679997</v>
       </c>
       <c r="E8">
@@ -1483,6 +4586,237 @@
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>22</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>27</v>
+      </c>
+      <c r="B26" t="s">
+        <v>23</v>
+      </c>
+      <c r="C26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26" t="s">
+        <v>28</v>
+      </c>
+      <c r="F26" t="s">
+        <v>23</v>
+      </c>
+      <c r="G26" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B27" s="1">
+        <f>B19</f>
+        <v>163765372.97993264</v>
+      </c>
+      <c r="C27" s="2">
+        <f>B20</f>
+        <v>21281.230603672837</v>
+      </c>
+      <c r="F27" s="1">
+        <f>B19</f>
+        <v>163765372.97993264</v>
+      </c>
+      <c r="G27" s="2">
+        <f>B20</f>
+        <v>21281.230603672837</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>0.8</v>
+      </c>
+      <c r="B28">
+        <f t="dataTable" ref="B28:C29" dt2D="0" dtr="0" r1="B31"/>
+        <v>131012157.16464309</v>
+      </c>
+      <c r="C28">
+        <v>17024.966652897419</v>
+      </c>
+      <c r="E28">
+        <v>-0.05</v>
+      </c>
+      <c r="F28">
+        <f t="dataTable" ref="F28:G29" dt2D="0" dtr="0" r1="B32" ca="1"/>
+        <v>155577069.02611023</v>
+      </c>
+      <c r="G28">
+        <v>20217.164615956342</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>1.2</v>
+      </c>
+      <c r="B29">
+        <v>196518588.79522213</v>
+      </c>
+      <c r="C29">
+        <v>25537.494554382007</v>
+      </c>
+      <c r="E29">
+        <v>0.05</v>
+      </c>
+      <c r="F29">
+        <v>171953676.93375501</v>
+      </c>
+      <c r="G29">
+        <v>22345.296591362476</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>25</v>
+      </c>
+      <c r="B31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>26</v>
+      </c>
+      <c r="B32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A34" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G34" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="H34" t="s">
+        <v>38</v>
+      </c>
+      <c r="I34" t="s">
+        <v>39</v>
+      </c>
+      <c r="J34" t="s">
+        <v>40</v>
+      </c>
+      <c r="K34" t="s">
+        <v>41</v>
+      </c>
+      <c r="L34" t="s">
+        <v>42</v>
+      </c>
+      <c r="M34" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>30</v>
+      </c>
+      <c r="B35" t="s">
+        <v>33</v>
+      </c>
+      <c r="C35" t="s">
+        <v>34</v>
+      </c>
+      <c r="D35" t="s">
+        <v>31</v>
+      </c>
+      <c r="E35" t="s">
+        <v>32</v>
+      </c>
+      <c r="G35" t="s">
+        <v>36</v>
+      </c>
+      <c r="H35">
+        <v>0.8</v>
+      </c>
+      <c r="I35">
+        <v>1.2</v>
+      </c>
+      <c r="J35">
+        <f>B28</f>
+        <v>131012157.16464309</v>
+      </c>
+      <c r="K35">
+        <f>B29</f>
+        <v>196518588.79522213</v>
+      </c>
+      <c r="L35">
+        <f>C28</f>
+        <v>17024.966652897419</v>
+      </c>
+      <c r="M35">
+        <f>C29</f>
+        <v>25537.494554382007</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>25</v>
+      </c>
+      <c r="B36" s="1">
+        <f>D36-B19</f>
+        <v>-32753215.815289542</v>
+      </c>
+      <c r="C36" s="1">
+        <f>E36-B19</f>
+        <v>32753215.815289497</v>
+      </c>
+      <c r="D36">
+        <f>B28</f>
+        <v>131012157.16464309</v>
+      </c>
+      <c r="E36">
+        <f>B29</f>
+        <v>196518588.79522213</v>
+      </c>
+      <c r="G36" t="s">
+        <v>37</v>
+      </c>
+      <c r="H36">
+        <v>-0.05</v>
+      </c>
+      <c r="I36">
+        <v>0.05</v>
+      </c>
+      <c r="J36">
+        <f>F28</f>
+        <v>155577069.02611023</v>
+      </c>
+      <c r="K36">
+        <f>F29</f>
+        <v>171953676.93375501</v>
+      </c>
+      <c r="L36">
+        <f>G28</f>
+        <v>20217.164615956342</v>
+      </c>
+      <c r="M36">
+        <f>G29</f>
+        <v>22345.296591362476</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>28</v>
+      </c>
+      <c r="B37" s="1">
+        <f>D37-B19</f>
+        <v>-8188303.9538224041</v>
+      </c>
+      <c r="C37" s="1">
+        <f>E37-B19</f>
+        <v>8188303.9538223743</v>
+      </c>
+      <c r="D37">
+        <f>F28</f>
+        <v>155577069.02611023</v>
+      </c>
+      <c r="E37">
+        <f>F29</f>
+        <v>171953676.93375501</v>
       </c>
     </row>
   </sheetData>
@@ -1490,22 +4824,26 @@
   <ignoredErrors>
     <ignoredError sqref="C7" formula="1"/>
   </ignoredErrors>
-  <legacyDrawing r:id="rId1"/>
+  <drawing r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8234F39-5E44-984E-B8C7-CCAE3B9A3DD2}">
-  <dimension ref="A1:G22"/>
+  <dimension ref="A1:M37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:H23"/>
+    <sheetView topLeftCell="A26" zoomScale="75" workbookViewId="0">
+      <selection activeCell="G34" sqref="G34:M36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="20" customWidth="1"/>
     <col min="2" max="2" width="27.1640625" customWidth="1"/>
+    <col min="3" max="3" width="19" customWidth="1"/>
+    <col min="6" max="6" width="16.6640625" customWidth="1"/>
+    <col min="7" max="7" width="16.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
@@ -1520,7 +4858,7 @@
         <v>1</v>
       </c>
       <c r="D1">
-        <f t="shared" ref="D1:H1" si="0">C1+1</f>
+        <f t="shared" ref="D1:G1" si="0">C1+1</f>
         <v>2</v>
       </c>
       <c r="E1">
@@ -1549,23 +4887,23 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <f>_xlfn.XLOOKUP($B$2,[1]Totals!$F:$F,[1]Totals!$C:$C)</f>
+        <f>_xlfn.XLOOKUP($B$2,[1]Totals!$F:$F,[1]Totals!$C:$C) * $B$31 * (1+$B$32)</f>
         <v>54523237.600000001</v>
       </c>
       <c r="D4">
-        <f>_xlfn.XLOOKUP($B$2,[1]Totals!$F:$F,[1]Totals!$C:$C)</f>
+        <f>_xlfn.XLOOKUP($B$2,[1]Totals!$F:$F,[1]Totals!$C:$C) * $B$31 * (1+$B$32)</f>
         <v>54523237.600000001</v>
       </c>
       <c r="E4">
-        <f>_xlfn.XLOOKUP($B$2,[1]Totals!$F:$F,[1]Totals!$C:$C)</f>
+        <f>_xlfn.XLOOKUP($B$2,[1]Totals!$F:$F,[1]Totals!$C:$C) * $B$31 * (1+$B$32)</f>
         <v>54523237.600000001</v>
       </c>
       <c r="F4">
-        <f>_xlfn.XLOOKUP($B$2,[1]Totals!$F:$F,[1]Totals!$C:$C)</f>
+        <f>_xlfn.XLOOKUP($B$2,[1]Totals!$F:$F,[1]Totals!$C:$C) * $B$31 * (1+$B$32)</f>
         <v>54523237.600000001</v>
       </c>
       <c r="G4">
-        <f>_xlfn.XLOOKUP($B$2,[1]Totals!$F:$F,[1]Totals!$C:$C)</f>
+        <f>_xlfn.XLOOKUP($B$2,[1]Totals!$F:$F,[1]Totals!$C:$C) * $B$31 * (1+$B$32)</f>
         <v>54523237.600000001</v>
       </c>
     </row>
@@ -1913,24 +5251,268 @@
         <v>1</v>
       </c>
     </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>27</v>
+      </c>
+      <c r="B26" t="s">
+        <v>23</v>
+      </c>
+      <c r="C26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26" t="s">
+        <v>28</v>
+      </c>
+      <c r="F26" t="s">
+        <v>23</v>
+      </c>
+      <c r="G26" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B27" s="1">
+        <f>B19</f>
+        <v>155013769.69302973</v>
+      </c>
+      <c r="C27" s="2">
+        <f>B20</f>
+        <v>20143.964150451942</v>
+      </c>
+      <c r="F27" s="1">
+        <f>B19</f>
+        <v>155013769.69302973</v>
+      </c>
+      <c r="G27" s="2">
+        <f>B20</f>
+        <v>20143.964150451942</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>0.8</v>
+      </c>
+      <c r="B28">
+        <f t="dataTable" ref="B28:C29" dt2D="0" dtr="0" r1="B31" ca="1"/>
+        <v>124010874.53512077</v>
+      </c>
+      <c r="C28">
+        <v>16115.153490336432</v>
+      </c>
+      <c r="E28">
+        <v>-0.05</v>
+      </c>
+      <c r="F28">
+        <f t="dataTable" ref="F28:G29" dt2D="0" dtr="0" r1="B32"/>
+        <v>147263045.9035525</v>
+      </c>
+      <c r="G28">
+        <v>19136.761485405248</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>1.2</v>
+      </c>
+      <c r="B29">
+        <v>186016664.85093871</v>
+      </c>
+      <c r="C29">
+        <v>24172.774810539202</v>
+      </c>
+      <c r="E29">
+        <v>0.05</v>
+      </c>
+      <c r="F29">
+        <v>162764493.48250696</v>
+      </c>
+      <c r="G29">
+        <v>21151.166815489818</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>25</v>
+      </c>
+      <c r="B31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>26</v>
+      </c>
+      <c r="B32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A34" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G34" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="H34" t="s">
+        <v>38</v>
+      </c>
+      <c r="I34" t="s">
+        <v>39</v>
+      </c>
+      <c r="J34" t="s">
+        <v>40</v>
+      </c>
+      <c r="K34" t="s">
+        <v>41</v>
+      </c>
+      <c r="L34" t="s">
+        <v>42</v>
+      </c>
+      <c r="M34" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>30</v>
+      </c>
+      <c r="B35" t="s">
+        <v>33</v>
+      </c>
+      <c r="C35" t="s">
+        <v>34</v>
+      </c>
+      <c r="D35" t="s">
+        <v>31</v>
+      </c>
+      <c r="E35" t="s">
+        <v>32</v>
+      </c>
+      <c r="G35" t="s">
+        <v>36</v>
+      </c>
+      <c r="H35">
+        <v>0.8</v>
+      </c>
+      <c r="I35">
+        <v>1.2</v>
+      </c>
+      <c r="J35">
+        <f>B28</f>
+        <v>124010874.53512077</v>
+      </c>
+      <c r="K35">
+        <f>B29</f>
+        <v>186016664.85093871</v>
+      </c>
+      <c r="L35">
+        <f>C28</f>
+        <v>16115.153490336432</v>
+      </c>
+      <c r="M35">
+        <f>C29</f>
+        <v>24172.774810539202</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>25</v>
+      </c>
+      <c r="B36" s="1">
+        <f>D36-B19</f>
+        <v>-31002895.157908961</v>
+      </c>
+      <c r="C36" s="1">
+        <f>E36-B19</f>
+        <v>31002895.157908976</v>
+      </c>
+      <c r="D36">
+        <f>B28</f>
+        <v>124010874.53512077</v>
+      </c>
+      <c r="E36">
+        <f>B29</f>
+        <v>186016664.85093871</v>
+      </c>
+      <c r="G36" t="s">
+        <v>37</v>
+      </c>
+      <c r="H36">
+        <v>-0.05</v>
+      </c>
+      <c r="I36">
+        <v>0.05</v>
+      </c>
+      <c r="J36">
+        <f>F28</f>
+        <v>147263045.9035525</v>
+      </c>
+      <c r="K36">
+        <f>F29</f>
+        <v>162764493.48250696</v>
+      </c>
+      <c r="L36">
+        <f>G28</f>
+        <v>19136.761485405248</v>
+      </c>
+      <c r="M36">
+        <f>G29</f>
+        <v>21151.166815489818</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>28</v>
+      </c>
+      <c r="B37" s="1">
+        <f>D37-B19</f>
+        <v>-7750723.7894772291</v>
+      </c>
+      <c r="C37" s="1">
+        <f>E37-B19</f>
+        <v>7750723.7894772291</v>
+      </c>
+      <c r="D37">
+        <f>F28</f>
+        <v>147263045.9035525</v>
+      </c>
+      <c r="E37">
+        <f>F29</f>
+        <v>162764493.48250696</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
+  <drawing r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A756CA4-3E9F-D243-87CE-D7568CEC2E0C}">
-  <dimension ref="A1:G22"/>
+  <dimension ref="A1:M37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="67" workbookViewId="0">
+      <selection activeCell="G34" sqref="G34:M36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="19.5" customWidth="1"/>
     <col min="2" max="2" width="24" customWidth="1"/>
+    <col min="3" max="3" width="15.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="13" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.33203125" customWidth="1"/>
+    <col min="7" max="7" width="13" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="11" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="13" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
@@ -1945,7 +5527,7 @@
         <v>1</v>
       </c>
       <c r="D1">
-        <f t="shared" ref="D1:H1" si="0">C1+1</f>
+        <f t="shared" ref="D1:G1" si="0">C1+1</f>
         <v>2</v>
       </c>
       <c r="E1">
@@ -1974,23 +5556,23 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <f>_xlfn.XLOOKUP($B$2,[1]Totals!$F:$F,[1]Totals!$C:$C)</f>
+        <f>_xlfn.XLOOKUP($B$2,[1]Totals!$F:$F,[1]Totals!$C:$C) * $B$31 * (1+$B$32)</f>
         <v>49367804</v>
       </c>
       <c r="D4">
-        <f>_xlfn.XLOOKUP($B$2,[1]Totals!$F:$F,[1]Totals!$C:$C)</f>
+        <f>_xlfn.XLOOKUP($B$2,[1]Totals!$F:$F,[1]Totals!$C:$C) * $B$31 * (1+$B$32)</f>
         <v>49367804</v>
       </c>
       <c r="E4">
-        <f>_xlfn.XLOOKUP($B$2,[1]Totals!$F:$F,[1]Totals!$C:$C)</f>
+        <f>_xlfn.XLOOKUP($B$2,[1]Totals!$F:$F,[1]Totals!$C:$C) * $B$31 * (1+$B$32)</f>
         <v>49367804</v>
       </c>
       <c r="F4">
-        <f>_xlfn.XLOOKUP($B$2,[1]Totals!$F:$F,[1]Totals!$C:$C)</f>
+        <f>_xlfn.XLOOKUP($B$2,[1]Totals!$F:$F,[1]Totals!$C:$C) * $B$31 * (1+$B$32)</f>
         <v>49367804</v>
       </c>
       <c r="G4">
-        <f>_xlfn.XLOOKUP($B$2,[1]Totals!$F:$F,[1]Totals!$C:$C)</f>
+        <f>_xlfn.XLOOKUP($B$2,[1]Totals!$F:$F,[1]Totals!$C:$C) * $B$31 * (1+$B$32)</f>
         <v>49367804</v>
       </c>
     </row>
@@ -2338,8 +5920,245 @@
         <v>1</v>
       </c>
     </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>27</v>
+      </c>
+      <c r="B26" t="s">
+        <v>23</v>
+      </c>
+      <c r="C26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26" t="s">
+        <v>28</v>
+      </c>
+      <c r="F26" t="s">
+        <v>23</v>
+      </c>
+      <c r="G26" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B27" s="1">
+        <f>B19</f>
+        <v>140356407.58194691</v>
+      </c>
+      <c r="C27" s="2">
+        <f>B20</f>
+        <v>18239.247303166576</v>
+      </c>
+      <c r="F27" s="1">
+        <f>B19</f>
+        <v>140356407.58194691</v>
+      </c>
+      <c r="G27" s="2">
+        <f>B20</f>
+        <v>18239.247303166576</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>0.8</v>
+      </c>
+      <c r="B28">
+        <f t="dataTable" ref="B28:C29" dt2D="0" dtr="0" r1="B31" ca="1"/>
+        <v>112284984.84625451</v>
+      </c>
+      <c r="C28">
+        <v>14591.380012486705</v>
+      </c>
+      <c r="E28">
+        <v>-0.05</v>
+      </c>
+      <c r="F28">
+        <f t="dataTable" ref="F28:G29" dt2D="0" dtr="0" r1="B32"/>
+        <v>133338551.8980238</v>
+      </c>
+      <c r="G28">
+        <v>17327.280480486115</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>1.2</v>
+      </c>
+      <c r="B29">
+        <v>168427830.31763935</v>
+      </c>
+      <c r="C29">
+        <v>21887.114593789356</v>
+      </c>
+      <c r="E29">
+        <v>0.05</v>
+      </c>
+      <c r="F29">
+        <v>147374263.26587003</v>
+      </c>
+      <c r="G29">
+        <v>19151.21412582108</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>25</v>
+      </c>
+      <c r="B31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>26</v>
+      </c>
+      <c r="B32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A34" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G34" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="H34" t="s">
+        <v>38</v>
+      </c>
+      <c r="I34" t="s">
+        <v>39</v>
+      </c>
+      <c r="J34" t="s">
+        <v>40</v>
+      </c>
+      <c r="K34" t="s">
+        <v>41</v>
+      </c>
+      <c r="L34" t="s">
+        <v>42</v>
+      </c>
+      <c r="M34" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>30</v>
+      </c>
+      <c r="B35" t="s">
+        <v>33</v>
+      </c>
+      <c r="C35" t="s">
+        <v>34</v>
+      </c>
+      <c r="D35" t="s">
+        <v>31</v>
+      </c>
+      <c r="E35" t="s">
+        <v>32</v>
+      </c>
+      <c r="G35" t="s">
+        <v>36</v>
+      </c>
+      <c r="H35">
+        <v>0.8</v>
+      </c>
+      <c r="I35">
+        <v>1.2</v>
+      </c>
+      <c r="J35">
+        <f>B28</f>
+        <v>112284984.84625451</v>
+      </c>
+      <c r="K35">
+        <f>B29</f>
+        <v>168427830.31763935</v>
+      </c>
+      <c r="L35">
+        <f>C28</f>
+        <v>14591.380012486705</v>
+      </c>
+      <c r="M35">
+        <f>C29</f>
+        <v>21887.114593789356</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>25</v>
+      </c>
+      <c r="B36" s="1">
+        <f>D36-B19</f>
+        <v>-28071422.735692397</v>
+      </c>
+      <c r="C36" s="1">
+        <f>E36-B19</f>
+        <v>28071422.735692441</v>
+      </c>
+      <c r="D36">
+        <f>B28</f>
+        <v>112284984.84625451</v>
+      </c>
+      <c r="E36">
+        <f>B29</f>
+        <v>168427830.31763935</v>
+      </c>
+      <c r="G36" t="s">
+        <v>37</v>
+      </c>
+      <c r="H36">
+        <v>-0.05</v>
+      </c>
+      <c r="I36">
+        <v>0.05</v>
+      </c>
+      <c r="J36">
+        <f>F28</f>
+        <v>133338551.8980238</v>
+      </c>
+      <c r="K36">
+        <f>F29</f>
+        <v>147374263.26587003</v>
+      </c>
+      <c r="L36">
+        <f>G28</f>
+        <v>17327.280480486115</v>
+      </c>
+      <c r="M36">
+        <f>G29</f>
+        <v>19151.21412582108</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>28</v>
+      </c>
+      <c r="B37" s="1">
+        <f>D37-B19</f>
+        <v>-7017855.6839231104</v>
+      </c>
+      <c r="C37" s="1">
+        <f>E37-B19</f>
+        <v>7017855.6839231253</v>
+      </c>
+      <c r="D37">
+        <f>F28</f>
+        <v>133338551.8980238</v>
+      </c>
+      <c r="E37">
+        <f>F29</f>
+        <v>147374263.26587003</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
+  <drawing r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/financial_projection_and_sensitivity/ROI_NPV_Payback_Hazira.xlsx
+++ b/financial_projection_and_sensitivity/ROI_NPV_Payback_Hazira.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lucymalmud/Desktop/hazira-port/financial_projection_and_sensitivity/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1B4D191-57CB-4F4E-89E9-0855D60D763E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D6143FB-925B-1340-87A4-BCD2A2B5ECFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3360" yWindow="500" windowWidth="23600" windowHeight="15180" activeTab="2" xr2:uid="{7C4D7752-87F6-D74B-989F-4854CE9FBA7F}"/>
+    <workbookView xWindow="7940" yWindow="780" windowWidth="19580" windowHeight="15180" activeTab="2" xr2:uid="{7C4D7752-87F6-D74B-989F-4854CE9FBA7F}"/>
   </bookViews>
   <sheets>
     <sheet name="CF_Conservative" sheetId="1" r:id="rId1"/>
@@ -259,9 +259,6 @@
     <t>unit rate scalar</t>
   </si>
   <si>
-    <t>improvement ad pp</t>
-  </si>
-  <si>
     <t>low input</t>
   </si>
   <si>
@@ -279,6 +276,9 @@
   <si>
     <t>IRR @ high</t>
   </si>
+  <si>
+    <t>improvement adj pp</t>
+  </si>
 </sst>
 </file>
 
@@ -287,19 +287,13 @@
   <numFmts count="1">
     <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -333,7 +327,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -487,10 +481,10 @@
                 <c:formatCode>"$"#,##0.00_);[Red]\("$"#,##0.00\)</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>-32753215.815289542</c:v>
+                  <c:v>-16357.519322951242</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>32753215.815289497</c:v>
+                  <c:v>16206.173360223978</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -546,10 +540,10 @@
                 <c:formatCode>"$"#,##0.00_);[Red]\("$"#,##0.00\)</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>-8188303.9538224041</c:v>
+                  <c:v>-4051.5433400559959</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8188303.9538223743</c:v>
+                  <c:v>4051.5433400559978</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -914,10 +908,10 @@
                 <c:formatCode>"$"#,##0.00_);[Red]\("$"#,##0.00\)</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>-31002895.157908961</c:v>
+                  <c:v>-16406.513596567198</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>31002895.157908976</c:v>
+                  <c:v>16278.197762021749</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -973,10 +967,10 @@
                 <c:formatCode>"$"#,##0.00_);[Red]\("$"#,##0.00\)</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>-7750723.7894772291</c:v>
+                  <c:v>-4069.549440505436</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7750723.7894772291</c:v>
+                  <c:v>4069.549440505436</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1341,10 +1335,10 @@
                 <c:formatCode>"$"#,##0.00_);[Red]\("$"#,##0.00\)</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>-28071422.735692397</c:v>
+                  <c:v>-16491.198194466644</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>28071422.735692441</c:v>
+                  <c:v>16402.688994466655</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1400,10 +1394,10 @@
                 <c:formatCode>"$"#,##0.00_);[Red]\("$"#,##0.00\)</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>-7017855.6839231104</c:v>
+                  <c:v>-4100.6722486166673</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7017855.6839231253</c:v>
+                  <c:v>4100.6722486166727</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3257,15 +3251,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>253999</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>170542</xdr:rowOff>
+      <xdr:colOff>801413</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>61059</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>865276</xdr:colOff>
-      <xdr:row>57</xdr:row>
-      <xdr:rowOff>111647</xdr:rowOff>
+      <xdr:colOff>1412690</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>2164</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3391,34 +3385,34 @@
       <sheetData sheetId="1"/>
       <sheetData sheetId="2">
         <row r="1">
-          <cell r="C1" t="str">
-            <v>savings_delta</v>
-          </cell>
-          <cell r="F1" t="str">
+          <cell r="B1" t="str">
+            <v>scenario_total_cost</v>
+          </cell>
+          <cell r="E1" t="str">
             <v>scenario</v>
           </cell>
         </row>
         <row r="2">
-          <cell r="C2">
-            <v>49367804</v>
-          </cell>
-          <cell r="F2" t="str">
+          <cell r="B2">
+            <v>28846.586899999998</v>
+          </cell>
+          <cell r="E2" t="str">
             <v>aggressive</v>
           </cell>
         </row>
         <row r="3">
-          <cell r="C3">
-            <v>54523237.600000001</v>
-          </cell>
-          <cell r="F3" t="str">
+          <cell r="B3">
+            <v>28627.650409999998</v>
+          </cell>
+          <cell r="E3" t="str">
             <v>moderate</v>
           </cell>
         </row>
         <row r="4">
-          <cell r="C4">
-            <v>57601438.799999997</v>
-          </cell>
-          <cell r="F4" t="str">
+          <cell r="B4">
+            <v>28500.984704999999</v>
+          </cell>
+          <cell r="E4" t="str">
             <v>conservative</v>
           </cell>
         </row>
@@ -3437,6 +3431,7 @@
     <sheetNames>
       <sheetName val="Capex"/>
       <sheetName val="Assumptions"/>
+      <sheetName val="CapEx_OpEx_Assumptions_Hazira"/>
     </sheetNames>
     <definedNames>
       <definedName name="discount_rate" refersTo="='Assumptions'!$C$14"/>
@@ -3448,10 +3443,10 @@
       <sheetData sheetId="0">
         <row r="5">
           <cell r="D5">
-            <v>2030</v>
+            <v>203000</v>
           </cell>
           <cell r="H5">
-            <v>17.632999999999999</v>
+            <v>39.71</v>
           </cell>
         </row>
       </sheetData>
@@ -3460,9 +3455,6 @@
           <cell r="C5">
             <v>0.25</v>
           </cell>
-          <cell r="D5" t="str">
-            <v>decimal</v>
-          </cell>
         </row>
         <row r="7">
           <cell r="C7">
@@ -3475,6 +3467,7 @@
           </cell>
         </row>
       </sheetData>
+      <sheetData sheetId="2" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -3513,7 +3506,7 @@
             <v>1</v>
           </cell>
           <cell r="K3">
-            <v>99.275000000000006</v>
+            <v>9927.5</v>
           </cell>
         </row>
         <row r="4">
@@ -3521,7 +3514,7 @@
             <v>2</v>
           </cell>
           <cell r="K4">
-            <v>99.275000000000006</v>
+            <v>9927.5</v>
           </cell>
         </row>
         <row r="5">
@@ -3529,7 +3522,7 @@
             <v>3</v>
           </cell>
           <cell r="K5">
-            <v>99.275000000000006</v>
+            <v>9927.5</v>
           </cell>
         </row>
         <row r="6">
@@ -3537,7 +3530,7 @@
             <v>4</v>
           </cell>
           <cell r="K6">
-            <v>99.275000000000006</v>
+            <v>9927.5</v>
           </cell>
         </row>
         <row r="7">
@@ -3545,7 +3538,7 @@
             <v>5</v>
           </cell>
           <cell r="K7">
-            <v>99.275000000000006</v>
+            <v>9927.5</v>
           </cell>
         </row>
         <row r="8">
@@ -3553,7 +3546,7 @@
             <v>6</v>
           </cell>
           <cell r="K8">
-            <v>99.275000000000006</v>
+            <v>9927.5</v>
           </cell>
         </row>
         <row r="9">
@@ -3561,7 +3554,7 @@
             <v>7</v>
           </cell>
           <cell r="K9">
-            <v>99.275000000000006</v>
+            <v>9927.5</v>
           </cell>
         </row>
         <row r="10">
@@ -3569,7 +3562,7 @@
             <v>8</v>
           </cell>
           <cell r="K10">
-            <v>99.275000000000006</v>
+            <v>9927.5</v>
           </cell>
         </row>
         <row r="11">
@@ -3577,7 +3570,7 @@
             <v>9</v>
           </cell>
           <cell r="K11">
-            <v>99.275000000000006</v>
+            <v>9927.5</v>
           </cell>
         </row>
         <row r="12">
@@ -3585,7 +3578,7 @@
             <v>10</v>
           </cell>
           <cell r="K12">
-            <v>93.574999999999989</v>
+            <v>9357.5</v>
           </cell>
         </row>
         <row r="13">
@@ -3593,7 +3586,7 @@
             <v>11</v>
           </cell>
           <cell r="K13">
-            <v>93.574999999999989</v>
+            <v>9357.5</v>
           </cell>
         </row>
         <row r="14">
@@ -3601,7 +3594,7 @@
             <v>12</v>
           </cell>
           <cell r="K14">
-            <v>93.574999999999989</v>
+            <v>9357.5</v>
           </cell>
         </row>
         <row r="15">
@@ -3609,7 +3602,7 @@
             <v>13</v>
           </cell>
           <cell r="K15">
-            <v>93.574999999999989</v>
+            <v>9357.5</v>
           </cell>
         </row>
         <row r="16">
@@ -3617,7 +3610,7 @@
             <v>14</v>
           </cell>
           <cell r="K16">
-            <v>93.574999999999989</v>
+            <v>9357.5</v>
           </cell>
         </row>
         <row r="17">
@@ -3625,7 +3618,7 @@
             <v>15</v>
           </cell>
           <cell r="K17">
-            <v>93.574999999999989</v>
+            <v>9357.5</v>
           </cell>
         </row>
         <row r="18">
@@ -3633,7 +3626,7 @@
             <v>16</v>
           </cell>
           <cell r="K18">
-            <v>93.574999999999989</v>
+            <v>9357.5</v>
           </cell>
         </row>
         <row r="19">
@@ -3641,7 +3634,7 @@
             <v>17</v>
           </cell>
           <cell r="K19">
-            <v>93.574999999999989</v>
+            <v>9357.5</v>
           </cell>
         </row>
         <row r="20">
@@ -3649,7 +3642,7 @@
             <v>18</v>
           </cell>
           <cell r="K20">
-            <v>93.574999999999989</v>
+            <v>9357.5</v>
           </cell>
         </row>
         <row r="21">
@@ -3657,7 +3650,7 @@
             <v>19</v>
           </cell>
           <cell r="K21">
-            <v>93.574999999999989</v>
+            <v>9357.5</v>
           </cell>
         </row>
         <row r="22">
@@ -3665,7 +3658,7 @@
             <v>20</v>
           </cell>
           <cell r="K22">
-            <v>93.574999999999989</v>
+            <v>9357.5</v>
           </cell>
         </row>
       </sheetData>
@@ -3691,10 +3684,10 @@
             <v>1</v>
           </cell>
           <cell r="C3">
-            <v>134.995</v>
+            <v>13499.5</v>
           </cell>
           <cell r="E3">
-            <v>91.322201514115136</v>
+            <v>9132.220151411515</v>
           </cell>
         </row>
         <row r="4">
@@ -3702,10 +3695,10 @@
             <v>2</v>
           </cell>
           <cell r="C4">
-            <v>126.31939085615907</v>
+            <v>12631.939085615906</v>
           </cell>
           <cell r="E4">
-            <v>99.997810657956066</v>
+            <v>9999.7810657956088</v>
           </cell>
         </row>
         <row r="5">
@@ -3713,10 +3706,10 @@
             <v>3</v>
           </cell>
           <cell r="C5">
-            <v>116.81959884365325</v>
+            <v>11681.959884365322</v>
           </cell>
           <cell r="E5">
-            <v>109.49760267046189</v>
+            <v>10949.760267046193</v>
           </cell>
         </row>
         <row r="6">
@@ -3724,10 +3717,10 @@
             <v>4</v>
           </cell>
           <cell r="C6">
-            <v>106.41732658995937</v>
+            <v>10641.732658995934</v>
           </cell>
           <cell r="E6">
-            <v>119.89987492415577</v>
+            <v>11989.987492415581</v>
           </cell>
         </row>
         <row r="7">
@@ -3735,10 +3728,10 @@
             <v>5</v>
           </cell>
           <cell r="C7">
-            <v>95.02683847216457</v>
+            <v>9502.6838472164545</v>
           </cell>
           <cell r="E7">
-            <v>131.29036304195057</v>
+            <v>13129.03630419506</v>
           </cell>
         </row>
         <row r="8">
@@ -3746,10 +3739,10 @@
             <v>6</v>
           </cell>
           <cell r="C8">
-            <v>82.554253983179279</v>
+            <v>8255.4253983179242</v>
           </cell>
           <cell r="E8">
-            <v>143.76294753093586</v>
+            <v>14376.294753093591</v>
           </cell>
         </row>
         <row r="9">
@@ -3757,10 +3750,10 @@
             <v>7</v>
           </cell>
           <cell r="C9">
-            <v>68.896773967740373</v>
+            <v>6889.6773967740328</v>
           </cell>
           <cell r="E9">
-            <v>157.42042754637475</v>
+            <v>15742.042754637481</v>
           </cell>
         </row>
         <row r="10">
@@ -3768,10 +3761,10 @@
             <v>8</v>
           </cell>
           <cell r="C10">
-            <v>53.941833350834763</v>
+            <v>5394.1833350834713</v>
           </cell>
           <cell r="E10">
-            <v>172.37536816328037</v>
+            <v>17237.536816328044</v>
           </cell>
         </row>
         <row r="11">
@@ -3779,10 +3772,10 @@
             <v>9</v>
           </cell>
           <cell r="C11">
-            <v>37.566173375323132</v>
+            <v>3756.6173375323074</v>
           </cell>
           <cell r="E11">
-            <v>188.75102813879201</v>
+            <v>18875.102813879206</v>
           </cell>
         </row>
         <row r="12">
@@ -3790,10 +3783,10 @@
             <v>10</v>
           </cell>
           <cell r="C12">
-            <v>19.634825702137888</v>
+            <v>1963.482570213783</v>
           </cell>
           <cell r="E12">
-            <v>206.68237581197724</v>
+            <v>20668.237581197733</v>
           </cell>
         </row>
         <row r="13">
@@ -4163,8 +4156,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFD34F95-0133-9445-9436-4C25E3326ACC}">
   <dimension ref="A1:M37"/>
   <sheetViews>
-    <sheetView topLeftCell="D28" zoomScale="142" workbookViewId="0">
-      <selection activeCell="H36" sqref="H36"/>
+    <sheetView topLeftCell="A25" zoomScale="86" workbookViewId="0">
+      <selection activeCell="G44" sqref="G44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4219,24 +4212,24 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <f>_xlfn.XLOOKUP($B$2,[1]Totals!$F:$F,[1]Totals!$C:$C) * $B$31 * (1+$B$32)</f>
-        <v>57601438.799999997</v>
+        <f>_xlfn.XLOOKUP($B$2,[1]Totals!$E:$E,[1]Totals!$B:$B) * $B$31 * (1+$B$32)</f>
+        <v>28500.984704999999</v>
       </c>
       <c r="D4">
-        <f>_xlfn.XLOOKUP($B$2,[1]Totals!$F:$F,[1]Totals!$C:$C) * $B$31 * (1+$B$32)</f>
-        <v>57601438.799999997</v>
+        <f>_xlfn.XLOOKUP($B$2,[1]Totals!$E:$E,[1]Totals!$B:$B) * $B$31 * (1+$B$32)</f>
+        <v>28500.984704999999</v>
       </c>
       <c r="E4">
-        <f>_xlfn.XLOOKUP($B$2,[1]Totals!$F:$F,[1]Totals!$C:$C) * $B$31 * (1+$B$32)</f>
-        <v>57601438.799999997</v>
+        <f>_xlfn.XLOOKUP($B$2,[1]Totals!$E:$E,[1]Totals!$B:$B) * $B$31 * (1+$B$32)</f>
+        <v>28500.984704999999</v>
       </c>
       <c r="F4">
-        <f>_xlfn.XLOOKUP($B$2,[1]Totals!$F:$F,[1]Totals!$C:$C) * $B$31 * (1+$B$32)</f>
-        <v>57601438.799999997</v>
+        <f>_xlfn.XLOOKUP($B$2,[1]Totals!$E:$E,[1]Totals!$B:$B) * $B$31 * (1+$B$32)</f>
+        <v>28500.984704999999</v>
       </c>
       <c r="G4">
-        <f>_xlfn.XLOOKUP($B$2,[1]Totals!$F:$F,[1]Totals!$C:$C) * $B$31 * (1+$B$32)</f>
-        <v>57601438.799999997</v>
+        <f>_xlfn.XLOOKUP($B$2,[1]Totals!$E:$E,[1]Totals!$B:$B) * $B$31 * (1+$B$32)</f>
+        <v>28500.984704999999</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
@@ -4245,23 +4238,23 @@
       </c>
       <c r="C5" cm="1">
         <f t="array" ref="C5">[2]!fixed_opex*(1+[2]!inflation)^(C1-1)</f>
-        <v>17.632999999999999</v>
+        <v>39.71</v>
       </c>
       <c r="D5" cm="1">
         <f t="array" ref="D5">[2]!fixed_opex*(1+[2]!inflation)^(D1-1)</f>
-        <v>18.33832</v>
+        <v>41.298400000000001</v>
       </c>
       <c r="E5" cm="1">
         <f t="array" ref="E5">[2]!fixed_opex*(1+[2]!inflation)^(E1-1)</f>
-        <v>19.071852800000002</v>
+        <v>42.950336000000007</v>
       </c>
       <c r="F5" cm="1">
         <f t="array" ref="F5">[2]!fixed_opex*(1+[2]!inflation)^(F1-1)</f>
-        <v>19.834726912000001</v>
+        <v>44.668349440000007</v>
       </c>
       <c r="G5" cm="1">
         <f t="array" ref="G5">[2]!fixed_opex*(1+[2]!inflation)^(G1-1)</f>
-        <v>20.628115988480001</v>
+        <v>46.455083417600008</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
@@ -4270,23 +4263,23 @@
       </c>
       <c r="C6">
         <f>C4-C5</f>
-        <v>57601421.166999996</v>
+        <v>28461.274705</v>
       </c>
       <c r="D6">
         <f t="shared" ref="D6:G6" si="1">D4-D5</f>
-        <v>57601420.461679995</v>
+        <v>28459.686304999999</v>
       </c>
       <c r="E6">
         <f t="shared" si="1"/>
-        <v>57601419.728147194</v>
+        <v>28458.034368999997</v>
       </c>
       <c r="F6">
         <f t="shared" si="1"/>
-        <v>57601418.965273082</v>
+        <v>28456.31635556</v>
       </c>
       <c r="G6">
         <f t="shared" si="1"/>
-        <v>57601418.171884008</v>
+        <v>28454.529621582398</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
@@ -4295,23 +4288,23 @@
       </c>
       <c r="C7">
         <f>_xlfn.XLOOKUP(C1,[3]Depreciation_Schedule!$A:$A,[3]Depreciation_Schedule!$K:$K)</f>
-        <v>99.275000000000006</v>
+        <v>9927.5</v>
       </c>
       <c r="D7">
         <f>_xlfn.XLOOKUP(D1,[3]Depreciation_Schedule!$A:$A,[3]Depreciation_Schedule!$K:$K)</f>
-        <v>99.275000000000006</v>
+        <v>9927.5</v>
       </c>
       <c r="E7">
         <f>_xlfn.XLOOKUP(E1,[3]Depreciation_Schedule!$A:$A,[3]Depreciation_Schedule!$K:$K)</f>
-        <v>99.275000000000006</v>
+        <v>9927.5</v>
       </c>
       <c r="F7">
         <f>_xlfn.XLOOKUP(F1,[3]Depreciation_Schedule!$A:$A,[3]Depreciation_Schedule!$K:$K)</f>
-        <v>99.275000000000006</v>
+        <v>9927.5</v>
       </c>
       <c r="G7">
         <f>_xlfn.XLOOKUP(G1,[3]Depreciation_Schedule!$A:$A,[3]Depreciation_Schedule!$K:$K)</f>
-        <v>99.275000000000006</v>
+        <v>9927.5</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
@@ -4320,23 +4313,23 @@
       </c>
       <c r="C8">
         <f>C6-C7</f>
-        <v>57601321.891999997</v>
+        <v>18533.774705</v>
       </c>
       <c r="D8">
         <f t="shared" ref="D8:F8" si="2">D6-D7</f>
-        <v>57601321.186679997</v>
+        <v>18532.186304999999</v>
       </c>
       <c r="E8">
         <f t="shared" si="2"/>
-        <v>57601320.453147195</v>
+        <v>18530.534368999997</v>
       </c>
       <c r="F8">
         <f t="shared" si="2"/>
-        <v>57601319.690273084</v>
+        <v>18528.81635556</v>
       </c>
       <c r="G8">
         <f>G6-G7</f>
-        <v>57601318.896884009</v>
+        <v>18527.029621582398</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
@@ -4345,23 +4338,23 @@
       </c>
       <c r="C9">
         <f>_xlfn.XLOOKUP(C1,[3]Debt_Amortisation!$A:$A,[3]Debt_Amortisation!$C:$C)</f>
-        <v>134.995</v>
+        <v>13499.5</v>
       </c>
       <c r="D9">
         <f>_xlfn.XLOOKUP(D1,[3]Debt_Amortisation!$A:$A,[3]Debt_Amortisation!$C:$C)</f>
-        <v>126.31939085615907</v>
+        <v>12631.939085615906</v>
       </c>
       <c r="E9">
         <f>_xlfn.XLOOKUP(E1,[3]Debt_Amortisation!$A:$A,[3]Debt_Amortisation!$C:$C)</f>
-        <v>116.81959884365325</v>
+        <v>11681.959884365322</v>
       </c>
       <c r="F9">
         <f>_xlfn.XLOOKUP(F1,[3]Debt_Amortisation!$A:$A,[3]Debt_Amortisation!$C:$C)</f>
-        <v>106.41732658995937</v>
+        <v>10641.732658995934</v>
       </c>
       <c r="G9">
         <f>_xlfn.XLOOKUP(G1,[3]Debt_Amortisation!$A:$A,[3]Debt_Amortisation!$C:$C)</f>
-        <v>95.02683847216457</v>
+        <v>9502.6838472164545</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
@@ -4370,23 +4363,23 @@
       </c>
       <c r="C10">
         <f>C8-C9</f>
-        <v>57601186.897</v>
+        <v>5034.2747049999998</v>
       </c>
       <c r="D10">
         <f t="shared" ref="D10:G10" si="3">D8-D9</f>
-        <v>57601194.867289141</v>
+        <v>5900.2472193840931</v>
       </c>
       <c r="E10">
         <f t="shared" si="3"/>
-        <v>57601203.633548349</v>
+        <v>6848.5744846346752</v>
       </c>
       <c r="F10">
         <f t="shared" si="3"/>
-        <v>57601213.272946492</v>
+        <v>7887.0836965640665</v>
       </c>
       <c r="G10">
         <f t="shared" si="3"/>
-        <v>57601223.870045535</v>
+        <v>9024.3457743659437</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
@@ -4395,23 +4388,23 @@
       </c>
       <c r="C11">
         <f>MAX(0, C10*[2]Assumptions!$C$5)</f>
-        <v>14400296.72425</v>
+        <v>1258.56867625</v>
       </c>
       <c r="D11">
         <f>MAX(0, D10*[2]Assumptions!$C$5)</f>
-        <v>14400298.716822285</v>
+        <v>1475.0618048460233</v>
       </c>
       <c r="E11">
         <f>MAX(0, E10*[2]Assumptions!$C$5)</f>
-        <v>14400300.908387087</v>
+        <v>1712.1436211586688</v>
       </c>
       <c r="F11">
         <f>MAX(0, F10*[2]Assumptions!$C$5)</f>
-        <v>14400303.318236623</v>
+        <v>1971.7709241410166</v>
       </c>
       <c r="G11">
         <f>MAX(0, G10*[2]Assumptions!$C$5)</f>
-        <v>14400305.967511384</v>
+        <v>2256.0864435914859</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
@@ -4420,23 +4413,23 @@
       </c>
       <c r="C12">
         <f>C10-C11</f>
-        <v>43200890.172749996</v>
+        <v>3775.7060287499999</v>
       </c>
       <c r="D12">
         <f t="shared" ref="D12:G12" si="4">D10-D11</f>
-        <v>43200896.150466859</v>
+        <v>4425.1854145380694</v>
       </c>
       <c r="E12">
         <f t="shared" si="4"/>
-        <v>43200902.725161262</v>
+        <v>5136.4308634760064</v>
       </c>
       <c r="F12">
         <f t="shared" si="4"/>
-        <v>43200909.954709873</v>
+        <v>5915.3127724230499</v>
       </c>
       <c r="G12">
         <f t="shared" si="4"/>
-        <v>43200917.90253415</v>
+        <v>6768.2593307744573</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
@@ -4445,23 +4438,23 @@
       </c>
       <c r="C13">
         <f>C7</f>
-        <v>99.275000000000006</v>
+        <v>9927.5</v>
       </c>
       <c r="D13">
         <f t="shared" ref="D13:G13" si="5">D7</f>
-        <v>99.275000000000006</v>
+        <v>9927.5</v>
       </c>
       <c r="E13">
         <f t="shared" si="5"/>
-        <v>99.275000000000006</v>
+        <v>9927.5</v>
       </c>
       <c r="F13">
         <f t="shared" si="5"/>
-        <v>99.275000000000006</v>
+        <v>9927.5</v>
       </c>
       <c r="G13">
         <f t="shared" si="5"/>
-        <v>99.275000000000006</v>
+        <v>9927.5</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
@@ -4470,23 +4463,23 @@
       </c>
       <c r="C14">
         <f>_xlfn.XLOOKUP(C1,[3]Debt_Amortisation!$A:$A,[3]Debt_Amortisation!$E:$E)</f>
-        <v>91.322201514115136</v>
+        <v>9132.220151411515</v>
       </c>
       <c r="D14">
         <f>_xlfn.XLOOKUP(D1,[3]Debt_Amortisation!$A:$A,[3]Debt_Amortisation!$E:$E)</f>
-        <v>99.997810657956066</v>
+        <v>9999.7810657956088</v>
       </c>
       <c r="E14">
         <f>_xlfn.XLOOKUP(E1,[3]Debt_Amortisation!$A:$A,[3]Debt_Amortisation!$E:$E)</f>
-        <v>109.49760267046189</v>
+        <v>10949.760267046193</v>
       </c>
       <c r="F14">
         <f>_xlfn.XLOOKUP(F1,[3]Debt_Amortisation!$A:$A,[3]Debt_Amortisation!$E:$E)</f>
-        <v>119.89987492415577</v>
+        <v>11989.987492415581</v>
       </c>
       <c r="G14">
         <f>_xlfn.XLOOKUP(G1,[3]Debt_Amortisation!$A:$A,[3]Debt_Amortisation!$E:$E)</f>
-        <v>131.29036304195057</v>
+        <v>13129.03630419506</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
@@ -4495,27 +4488,27 @@
       </c>
       <c r="B15" cm="1">
         <f t="array" ref="B15">-[2]!subtotal_capex</f>
-        <v>-2030</v>
+        <v>-203000</v>
       </c>
       <c r="C15">
         <f>C12+C13-C14</f>
-        <v>43200898.125548482</v>
+        <v>4570.985877338484</v>
       </c>
       <c r="D15">
         <f t="shared" ref="D15:G15" si="6">D12+D13-D14</f>
-        <v>43200895.427656204</v>
+        <v>4352.9043487424606</v>
       </c>
       <c r="E15">
         <f t="shared" si="6"/>
-        <v>43200892.502558589</v>
+        <v>4114.1705964298126</v>
       </c>
       <c r="F15">
         <f t="shared" si="6"/>
-        <v>43200889.329834945</v>
+        <v>3852.8252800074697</v>
       </c>
       <c r="G15">
         <f t="shared" si="6"/>
-        <v>43200885.887171105</v>
+        <v>3566.7230265793969</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
@@ -4524,27 +4517,27 @@
       </c>
       <c r="B17">
         <f>B15</f>
-        <v>-2030</v>
+        <v>-203000</v>
       </c>
       <c r="C17">
         <f>B17+C15</f>
-        <v>43198868.125548482</v>
+        <v>-198429.01412266152</v>
       </c>
       <c r="D17">
         <f t="shared" ref="D17:G17" si="7">C17+D15</f>
-        <v>86399763.553204685</v>
+        <v>-194076.10977391907</v>
       </c>
       <c r="E17">
         <f t="shared" si="7"/>
-        <v>129600656.05576327</v>
+        <v>-189961.93917748926</v>
       </c>
       <c r="F17">
         <f t="shared" si="7"/>
-        <v>172801545.38559821</v>
+        <v>-186109.11389748179</v>
       </c>
       <c r="G17">
         <f t="shared" si="7"/>
-        <v>216002431.27276933</v>
+        <v>-182542.3908709024</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
@@ -4553,7 +4546,7 @@
       </c>
       <c r="B19" s="1" cm="1">
         <f t="array" ref="B19">NPV([2]!discount_rate, C15:G15)</f>
-        <v>163765372.97993264</v>
+        <v>15690.106467799125</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
@@ -4562,7 +4555,7 @@
       </c>
       <c r="B20" s="2">
         <f>IRR(B15:G15)</f>
-        <v>21281.230603672837</v>
+        <v>-0.48149732941814682</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
@@ -4571,16 +4564,16 @@
       </c>
       <c r="B21">
         <f>SUM(C12:G12)/-B15</f>
-        <v>106406.16596336066</v>
+        <v>0.12818174586187972</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>18</v>
       </c>
-      <c r="B22" cm="1">
+      <c r="B22" t="e" cm="1">
         <f t="array" ref="B22">MATCH(TRUE, C17:G17&gt;0, 0)</f>
-        <v>1</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
@@ -4611,19 +4604,19 @@
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B27" s="1">
         <f>B19</f>
-        <v>163765372.97993264</v>
+        <v>15690.106467799125</v>
       </c>
       <c r="C27" s="2">
         <f>B20</f>
-        <v>21281.230603672837</v>
+        <v>-0.48149732941814682</v>
       </c>
       <c r="F27" s="1">
         <f>B19</f>
-        <v>163765372.97993264</v>
+        <v>15690.106467799125</v>
       </c>
       <c r="G27" s="2">
         <f>B20</f>
-        <v>21281.230603672837</v>
+        <v>-0.48149732941814682</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.2">
@@ -4631,21 +4624,21 @@
         <v>0.8</v>
       </c>
       <c r="B28">
-        <f t="dataTable" ref="B28:C29" dt2D="0" dtr="0" r1="B31"/>
-        <v>131012157.16464309</v>
-      </c>
-      <c r="C28">
-        <v>17024.966652897419</v>
+        <f t="dataTable" ref="B28:C29" dt2D="0" dtr="0" r1="B31" ca="1"/>
+        <v>-667.41285515211734</v>
+      </c>
+      <c r="C28" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="E28">
         <v>-0.05</v>
       </c>
       <c r="F28">
-        <f t="dataTable" ref="F28:G29" dt2D="0" dtr="0" r1="B32" ca="1"/>
-        <v>155577069.02611023</v>
+        <f t="dataTable" ref="F28:G29" dt2D="0" dtr="0" r1="B32"/>
+        <v>11638.563127743129</v>
       </c>
       <c r="G28">
-        <v>20217.164615956342</v>
+        <v>-0.52199122068951143</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
@@ -4653,19 +4646,19 @@
         <v>1.2</v>
       </c>
       <c r="B29">
-        <v>196518588.79522213</v>
+        <v>31896.279828023104</v>
       </c>
       <c r="C29">
-        <v>25537.494554382007</v>
+        <v>-0.37250829467541113</v>
       </c>
       <c r="E29">
         <v>0.05</v>
       </c>
       <c r="F29">
-        <v>171953676.93375501</v>
+        <v>19741.649807855123</v>
       </c>
       <c r="G29">
-        <v>22345.296591362476</v>
+        <v>-0.44849200378013787</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.2">
@@ -4692,22 +4685,22 @@
         <v>35</v>
       </c>
       <c r="H34" t="s">
+        <v>37</v>
+      </c>
+      <c r="I34" t="s">
         <v>38</v>
       </c>
-      <c r="I34" t="s">
+      <c r="J34" t="s">
         <v>39</v>
       </c>
-      <c r="J34" t="s">
+      <c r="K34" t="s">
         <v>40</v>
       </c>
-      <c r="K34" t="s">
+      <c r="L34" t="s">
         <v>41</v>
       </c>
-      <c r="L34" t="s">
+      <c r="M34" t="s">
         <v>42</v>
-      </c>
-      <c r="M34" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.2">
@@ -4737,19 +4730,19 @@
       </c>
       <c r="J35">
         <f>B28</f>
-        <v>131012157.16464309</v>
+        <v>-667.41285515211734</v>
       </c>
       <c r="K35">
         <f>B29</f>
-        <v>196518588.79522213</v>
-      </c>
-      <c r="L35">
+        <v>31896.279828023104</v>
+      </c>
+      <c r="L35" t="e">
         <f>C28</f>
-        <v>17024.966652897419</v>
+        <v>#NUM!</v>
       </c>
       <c r="M35">
         <f>C29</f>
-        <v>25537.494554382007</v>
+        <v>-0.37250829467541113</v>
       </c>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.2">
@@ -4758,22 +4751,22 @@
       </c>
       <c r="B36" s="1">
         <f>D36-B19</f>
-        <v>-32753215.815289542</v>
+        <v>-16357.519322951242</v>
       </c>
       <c r="C36" s="1">
         <f>E36-B19</f>
-        <v>32753215.815289497</v>
+        <v>16206.173360223978</v>
       </c>
       <c r="D36">
         <f>B28</f>
-        <v>131012157.16464309</v>
+        <v>-667.41285515211734</v>
       </c>
       <c r="E36">
         <f>B29</f>
-        <v>196518588.79522213</v>
+        <v>31896.279828023104</v>
       </c>
       <c r="G36" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="H36">
         <v>-0.05</v>
@@ -4783,19 +4776,19 @@
       </c>
       <c r="J36">
         <f>F28</f>
-        <v>155577069.02611023</v>
+        <v>11638.563127743129</v>
       </c>
       <c r="K36">
         <f>F29</f>
-        <v>171953676.93375501</v>
+        <v>19741.649807855123</v>
       </c>
       <c r="L36">
         <f>G28</f>
-        <v>20217.164615956342</v>
+        <v>-0.52199122068951143</v>
       </c>
       <c r="M36">
         <f>G29</f>
-        <v>22345.296591362476</v>
+        <v>-0.44849200378013787</v>
       </c>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.2">
@@ -4804,19 +4797,19 @@
       </c>
       <c r="B37" s="1">
         <f>D37-B19</f>
-        <v>-8188303.9538224041</v>
+        <v>-4051.5433400559959</v>
       </c>
       <c r="C37" s="1">
         <f>E37-B19</f>
-        <v>8188303.9538223743</v>
+        <v>4051.5433400559978</v>
       </c>
       <c r="D37">
         <f>F28</f>
-        <v>155577069.02611023</v>
+        <v>11638.563127743129</v>
       </c>
       <c r="E37">
         <f>F29</f>
-        <v>171953676.93375501</v>
+        <v>19741.649807855123</v>
       </c>
     </row>
   </sheetData>
@@ -4833,8 +4826,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8234F39-5E44-984E-B8C7-CCAE3B9A3DD2}">
   <dimension ref="A1:M37"/>
   <sheetViews>
-    <sheetView topLeftCell="A26" zoomScale="75" workbookViewId="0">
-      <selection activeCell="G34" sqref="G34:M36"/>
+    <sheetView zoomScale="75" workbookViewId="0">
+      <selection activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4887,24 +4880,24 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <f>_xlfn.XLOOKUP($B$2,[1]Totals!$F:$F,[1]Totals!$C:$C) * $B$31 * (1+$B$32)</f>
-        <v>54523237.600000001</v>
+        <f>_xlfn.XLOOKUP($B$2,[1]Totals!$E:$E,[1]Totals!$B:$B) * $B$31 * (1+$B$32)</f>
+        <v>28627.650409999998</v>
       </c>
       <c r="D4">
-        <f>_xlfn.XLOOKUP($B$2,[1]Totals!$F:$F,[1]Totals!$C:$C) * $B$31 * (1+$B$32)</f>
-        <v>54523237.600000001</v>
+        <f>_xlfn.XLOOKUP($B$2,[1]Totals!$E:$E,[1]Totals!$B:$B) * $B$31 * (1+$B$32)</f>
+        <v>28627.650409999998</v>
       </c>
       <c r="E4">
-        <f>_xlfn.XLOOKUP($B$2,[1]Totals!$F:$F,[1]Totals!$C:$C) * $B$31 * (1+$B$32)</f>
-        <v>54523237.600000001</v>
+        <f>_xlfn.XLOOKUP($B$2,[1]Totals!$E:$E,[1]Totals!$B:$B) * $B$31 * (1+$B$32)</f>
+        <v>28627.650409999998</v>
       </c>
       <c r="F4">
-        <f>_xlfn.XLOOKUP($B$2,[1]Totals!$F:$F,[1]Totals!$C:$C) * $B$31 * (1+$B$32)</f>
-        <v>54523237.600000001</v>
+        <f>_xlfn.XLOOKUP($B$2,[1]Totals!$E:$E,[1]Totals!$B:$B) * $B$31 * (1+$B$32)</f>
+        <v>28627.650409999998</v>
       </c>
       <c r="G4">
-        <f>_xlfn.XLOOKUP($B$2,[1]Totals!$F:$F,[1]Totals!$C:$C) * $B$31 * (1+$B$32)</f>
-        <v>54523237.600000001</v>
+        <f>_xlfn.XLOOKUP($B$2,[1]Totals!$E:$E,[1]Totals!$B:$B) * $B$31 * (1+$B$32)</f>
+        <v>28627.650409999998</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
@@ -4913,23 +4906,23 @@
       </c>
       <c r="C5" cm="1">
         <f t="array" ref="C5">[2]!fixed_opex*(1+[2]!inflation)^(C1-1)</f>
-        <v>17.632999999999999</v>
+        <v>39.71</v>
       </c>
       <c r="D5" cm="1">
         <f t="array" ref="D5">[2]!fixed_opex*(1+[2]!inflation)^(D1-1)</f>
-        <v>18.33832</v>
+        <v>41.298400000000001</v>
       </c>
       <c r="E5" cm="1">
         <f t="array" ref="E5">[2]!fixed_opex*(1+[2]!inflation)^(E1-1)</f>
-        <v>19.071852800000002</v>
+        <v>42.950336000000007</v>
       </c>
       <c r="F5" cm="1">
         <f t="array" ref="F5">[2]!fixed_opex*(1+[2]!inflation)^(F1-1)</f>
-        <v>19.834726912000001</v>
+        <v>44.668349440000007</v>
       </c>
       <c r="G5" cm="1">
         <f t="array" ref="G5">[2]!fixed_opex*(1+[2]!inflation)^(G1-1)</f>
-        <v>20.628115988480001</v>
+        <v>46.455083417600008</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
@@ -4938,23 +4931,23 @@
       </c>
       <c r="C6">
         <f>C4-C5</f>
-        <v>54523219.967</v>
+        <v>28587.940409999999</v>
       </c>
       <c r="D6">
         <f t="shared" ref="D6:G6" si="1">D4-D5</f>
-        <v>54523219.26168</v>
+        <v>28586.352009999999</v>
       </c>
       <c r="E6">
         <f t="shared" si="1"/>
-        <v>54523218.528147198</v>
+        <v>28584.700073999997</v>
       </c>
       <c r="F6">
         <f t="shared" si="1"/>
-        <v>54523217.765273087</v>
+        <v>28582.98206056</v>
       </c>
       <c r="G6">
         <f t="shared" si="1"/>
-        <v>54523216.971884012</v>
+        <v>28581.195326582398</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
@@ -4963,23 +4956,23 @@
       </c>
       <c r="C7">
         <f>_xlfn.XLOOKUP(C1,[3]Depreciation_Schedule!$A:$A,[3]Depreciation_Schedule!$K:$K)</f>
-        <v>99.275000000000006</v>
+        <v>9927.5</v>
       </c>
       <c r="D7">
         <f>_xlfn.XLOOKUP(D1,[3]Depreciation_Schedule!$A:$A,[3]Depreciation_Schedule!$K:$K)</f>
-        <v>99.275000000000006</v>
+        <v>9927.5</v>
       </c>
       <c r="E7">
         <f>_xlfn.XLOOKUP(E1,[3]Depreciation_Schedule!$A:$A,[3]Depreciation_Schedule!$K:$K)</f>
-        <v>99.275000000000006</v>
+        <v>9927.5</v>
       </c>
       <c r="F7">
         <f>_xlfn.XLOOKUP(F1,[3]Depreciation_Schedule!$A:$A,[3]Depreciation_Schedule!$K:$K)</f>
-        <v>99.275000000000006</v>
+        <v>9927.5</v>
       </c>
       <c r="G7">
         <f>_xlfn.XLOOKUP(G1,[3]Depreciation_Schedule!$A:$A,[3]Depreciation_Schedule!$K:$K)</f>
-        <v>99.275000000000006</v>
+        <v>9927.5</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
@@ -4988,23 +4981,23 @@
       </c>
       <c r="C8">
         <f>C6-C7</f>
-        <v>54523120.692000002</v>
+        <v>18660.440409999999</v>
       </c>
       <c r="D8">
         <f t="shared" ref="D8:F8" si="2">D6-D7</f>
-        <v>54523119.986680001</v>
+        <v>18658.852009999999</v>
       </c>
       <c r="E8">
         <f t="shared" si="2"/>
-        <v>54523119.2531472</v>
+        <v>18657.200073999997</v>
       </c>
       <c r="F8">
         <f t="shared" si="2"/>
-        <v>54523118.490273088</v>
+        <v>18655.48206056</v>
       </c>
       <c r="G8">
         <f>G6-G7</f>
-        <v>54523117.696884014</v>
+        <v>18653.695326582398</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
@@ -5013,23 +5006,23 @@
       </c>
       <c r="C9">
         <f>_xlfn.XLOOKUP(C1,[3]Debt_Amortisation!$A:$A,[3]Debt_Amortisation!$C:$C)</f>
-        <v>134.995</v>
+        <v>13499.5</v>
       </c>
       <c r="D9">
         <f>_xlfn.XLOOKUP(D1,[3]Debt_Amortisation!$A:$A,[3]Debt_Amortisation!$C:$C)</f>
-        <v>126.31939085615907</v>
+        <v>12631.939085615906</v>
       </c>
       <c r="E9">
         <f>_xlfn.XLOOKUP(E1,[3]Debt_Amortisation!$A:$A,[3]Debt_Amortisation!$C:$C)</f>
-        <v>116.81959884365325</v>
+        <v>11681.959884365322</v>
       </c>
       <c r="F9">
         <f>_xlfn.XLOOKUP(F1,[3]Debt_Amortisation!$A:$A,[3]Debt_Amortisation!$C:$C)</f>
-        <v>106.41732658995937</v>
+        <v>10641.732658995934</v>
       </c>
       <c r="G9">
         <f>_xlfn.XLOOKUP(G1,[3]Debt_Amortisation!$A:$A,[3]Debt_Amortisation!$C:$C)</f>
-        <v>95.02683847216457</v>
+        <v>9502.6838472164545</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
@@ -5038,23 +5031,23 @@
       </c>
       <c r="C10">
         <f>C8-C9</f>
-        <v>54522985.697000004</v>
+        <v>5160.9404099999992</v>
       </c>
       <c r="D10">
         <f t="shared" ref="D10:G10" si="3">D8-D9</f>
-        <v>54522993.667289145</v>
+        <v>6026.9129243840925</v>
       </c>
       <c r="E10">
         <f t="shared" si="3"/>
-        <v>54523002.433548354</v>
+        <v>6975.2401896346746</v>
       </c>
       <c r="F10">
         <f t="shared" si="3"/>
-        <v>54523012.072946496</v>
+        <v>8013.7494015640659</v>
       </c>
       <c r="G10">
         <f t="shared" si="3"/>
-        <v>54523022.67004554</v>
+        <v>9151.0114793659432</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
@@ -5063,23 +5056,23 @@
       </c>
       <c r="C11">
         <f>MAX(0, C10*[2]Assumptions!$C$5)</f>
-        <v>13630746.424250001</v>
+        <v>1290.2351024999998</v>
       </c>
       <c r="D11">
         <f>MAX(0, D10*[2]Assumptions!$C$5)</f>
-        <v>13630748.416822286</v>
+        <v>1506.7282310960231</v>
       </c>
       <c r="E11">
         <f>MAX(0, E10*[2]Assumptions!$C$5)</f>
-        <v>13630750.608387088</v>
+        <v>1743.8100474086687</v>
       </c>
       <c r="F11">
         <f>MAX(0, F10*[2]Assumptions!$C$5)</f>
-        <v>13630753.018236624</v>
+        <v>2003.4373503910165</v>
       </c>
       <c r="G11">
         <f>MAX(0, G10*[2]Assumptions!$C$5)</f>
-        <v>13630755.667511385</v>
+        <v>2287.7528698414858</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
@@ -5088,23 +5081,23 @@
       </c>
       <c r="C12">
         <f>C10-C11</f>
-        <v>40892239.272750005</v>
+        <v>3870.7053074999994</v>
       </c>
       <c r="D12">
         <f t="shared" ref="D12:G12" si="4">D10-D11</f>
-        <v>40892245.250466861</v>
+        <v>4520.184693288069</v>
       </c>
       <c r="E12">
         <f t="shared" si="4"/>
-        <v>40892251.825161263</v>
+        <v>5231.430142226006</v>
       </c>
       <c r="F12">
         <f t="shared" si="4"/>
-        <v>40892259.054709874</v>
+        <v>6010.3120511730494</v>
       </c>
       <c r="G12">
         <f t="shared" si="4"/>
-        <v>40892267.002534151</v>
+        <v>6863.2586095244569</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
@@ -5113,23 +5106,23 @@
       </c>
       <c r="C13">
         <f>C7</f>
-        <v>99.275000000000006</v>
+        <v>9927.5</v>
       </c>
       <c r="D13">
         <f t="shared" ref="D13:G13" si="5">D7</f>
-        <v>99.275000000000006</v>
+        <v>9927.5</v>
       </c>
       <c r="E13">
         <f t="shared" si="5"/>
-        <v>99.275000000000006</v>
+        <v>9927.5</v>
       </c>
       <c r="F13">
         <f t="shared" si="5"/>
-        <v>99.275000000000006</v>
+        <v>9927.5</v>
       </c>
       <c r="G13">
         <f t="shared" si="5"/>
-        <v>99.275000000000006</v>
+        <v>9927.5</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
@@ -5138,23 +5131,23 @@
       </c>
       <c r="C14">
         <f>_xlfn.XLOOKUP(C1,[3]Debt_Amortisation!$A:$A,[3]Debt_Amortisation!$E:$E)</f>
-        <v>91.322201514115136</v>
+        <v>9132.220151411515</v>
       </c>
       <c r="D14">
         <f>_xlfn.XLOOKUP(D1,[3]Debt_Amortisation!$A:$A,[3]Debt_Amortisation!$E:$E)</f>
-        <v>99.997810657956066</v>
+        <v>9999.7810657956088</v>
       </c>
       <c r="E14">
         <f>_xlfn.XLOOKUP(E1,[3]Debt_Amortisation!$A:$A,[3]Debt_Amortisation!$E:$E)</f>
-        <v>109.49760267046189</v>
+        <v>10949.760267046193</v>
       </c>
       <c r="F14">
         <f>_xlfn.XLOOKUP(F1,[3]Debt_Amortisation!$A:$A,[3]Debt_Amortisation!$E:$E)</f>
-        <v>119.89987492415577</v>
+        <v>11989.987492415581</v>
       </c>
       <c r="G14">
         <f>_xlfn.XLOOKUP(G1,[3]Debt_Amortisation!$A:$A,[3]Debt_Amortisation!$E:$E)</f>
-        <v>131.29036304195057</v>
+        <v>13129.03630419506</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
@@ -5163,27 +5156,27 @@
       </c>
       <c r="B15" cm="1">
         <f t="array" ref="B15">-[2]!subtotal_capex</f>
-        <v>-2030</v>
+        <v>-203000</v>
       </c>
       <c r="C15">
         <f>C12+C13-C14</f>
-        <v>40892247.225548491</v>
+        <v>4665.9851560884854</v>
       </c>
       <c r="D15">
         <f t="shared" ref="D15:G15" si="6">D12+D13-D14</f>
-        <v>40892244.527656205</v>
+        <v>4447.9036274924601</v>
       </c>
       <c r="E15">
         <f t="shared" si="6"/>
-        <v>40892241.60255859</v>
+        <v>4209.169875179814</v>
       </c>
       <c r="F15">
         <f t="shared" si="6"/>
-        <v>40892238.429834947</v>
+        <v>3947.8245587574675</v>
       </c>
       <c r="G15">
         <f t="shared" si="6"/>
-        <v>40892234.987171106</v>
+        <v>3661.7223053293947</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
@@ -5192,27 +5185,27 @@
       </c>
       <c r="B17">
         <f>B15</f>
-        <v>-2030</v>
+        <v>-203000</v>
       </c>
       <c r="C17">
         <f>B17+C15</f>
-        <v>40890217.225548491</v>
+        <v>-198334.01484391151</v>
       </c>
       <c r="D17">
         <f t="shared" ref="D17:G17" si="7">C17+D15</f>
-        <v>81782461.753204703</v>
+        <v>-193886.11121641906</v>
       </c>
       <c r="E17">
         <f t="shared" si="7"/>
-        <v>122674703.35576329</v>
+        <v>-189676.94134123923</v>
       </c>
       <c r="F17">
         <f t="shared" si="7"/>
-        <v>163566941.78559822</v>
+        <v>-185729.11678248175</v>
       </c>
       <c r="G17">
         <f t="shared" si="7"/>
-        <v>204459176.77276933</v>
+        <v>-182067.39447715235</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
@@ -5221,7 +5214,7 @@
       </c>
       <c r="B19" s="1" cm="1">
         <f t="array" ref="B19">NPV([2]!discount_rate, C15:G15)</f>
-        <v>155013769.69302973</v>
+        <v>16050.228476787974</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
@@ -5230,7 +5223,7 @@
       </c>
       <c r="B20" s="2">
         <f>IRR(B15:G15)</f>
-        <v>20143.964150451942</v>
+        <v>-0.47831665405728874</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
@@ -5239,16 +5232,16 @@
       </c>
       <c r="B21">
         <f>SUM(C12:G12)/-B15</f>
-        <v>100719.83369735081</v>
+        <v>0.13052162957493391</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>18</v>
       </c>
-      <c r="B22" cm="1">
+      <c r="B22" t="e" cm="1">
         <f t="array" ref="B22">MATCH(TRUE, C17:G17&gt;0, 0)</f>
-        <v>1</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
@@ -5279,19 +5272,19 @@
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B27" s="1">
         <f>B19</f>
-        <v>155013769.69302973</v>
+        <v>16050.228476787974</v>
       </c>
       <c r="C27" s="2">
         <f>B20</f>
-        <v>20143.964150451942</v>
+        <v>-0.47831665405728874</v>
       </c>
       <c r="F27" s="1">
         <f>B19</f>
-        <v>155013769.69302973</v>
+        <v>16050.228476787974</v>
       </c>
       <c r="G27" s="2">
         <f>B20</f>
-        <v>20143.964150451942</v>
+        <v>-0.47831665405728874</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.2">
@@ -5299,21 +5292,21 @@
         <v>0.8</v>
       </c>
       <c r="B28">
-        <f t="dataTable" ref="B28:C29" dt2D="0" dtr="0" r1="B31" ca="1"/>
-        <v>124010874.53512077</v>
-      </c>
-      <c r="C28">
-        <v>16115.153490336432</v>
+        <f t="dataTable" ref="B28:C29" dt2D="0" dtr="0" r1="B31"/>
+        <v>-356.28511977922352</v>
+      </c>
+      <c r="C28" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="E28">
         <v>-0.05</v>
       </c>
       <c r="F28">
-        <f t="dataTable" ref="F28:G29" dt2D="0" dtr="0" r1="B32"/>
-        <v>147263045.9035525</v>
+        <f t="dataTable" ref="F28:G29" dt2D="0" dtr="0" r1="B32" ca="1"/>
+        <v>11980.679036282538</v>
       </c>
       <c r="G28">
-        <v>19136.761485405248</v>
+        <v>-0.51816363509291175</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
@@ -5321,19 +5314,19 @@
         <v>1.2</v>
       </c>
       <c r="B29">
-        <v>186016664.85093871</v>
+        <v>32328.426238809723</v>
       </c>
       <c r="C29">
-        <v>24172.774810539202</v>
+        <v>-0.3702121795810156</v>
       </c>
       <c r="E29">
         <v>0.05</v>
       </c>
       <c r="F29">
-        <v>162764493.48250696</v>
+        <v>20119.77791729341</v>
       </c>
       <c r="G29">
-        <v>21151.166815489818</v>
+        <v>-0.44567995058265808</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.2">
@@ -5360,22 +5353,22 @@
         <v>35</v>
       </c>
       <c r="H34" t="s">
+        <v>37</v>
+      </c>
+      <c r="I34" t="s">
         <v>38</v>
       </c>
-      <c r="I34" t="s">
+      <c r="J34" t="s">
         <v>39</v>
       </c>
-      <c r="J34" t="s">
+      <c r="K34" t="s">
         <v>40</v>
       </c>
-      <c r="K34" t="s">
+      <c r="L34" t="s">
         <v>41</v>
       </c>
-      <c r="L34" t="s">
+      <c r="M34" t="s">
         <v>42</v>
-      </c>
-      <c r="M34" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.2">
@@ -5405,19 +5398,19 @@
       </c>
       <c r="J35">
         <f>B28</f>
-        <v>124010874.53512077</v>
+        <v>-356.28511977922352</v>
       </c>
       <c r="K35">
         <f>B29</f>
-        <v>186016664.85093871</v>
-      </c>
-      <c r="L35">
+        <v>32328.426238809723</v>
+      </c>
+      <c r="L35" t="e">
         <f>C28</f>
-        <v>16115.153490336432</v>
+        <v>#NUM!</v>
       </c>
       <c r="M35">
         <f>C29</f>
-        <v>24172.774810539202</v>
+        <v>-0.3702121795810156</v>
       </c>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.2">
@@ -5426,22 +5419,22 @@
       </c>
       <c r="B36" s="1">
         <f>D36-B19</f>
-        <v>-31002895.157908961</v>
+        <v>-16406.513596567198</v>
       </c>
       <c r="C36" s="1">
         <f>E36-B19</f>
-        <v>31002895.157908976</v>
+        <v>16278.197762021749</v>
       </c>
       <c r="D36">
         <f>B28</f>
-        <v>124010874.53512077</v>
+        <v>-356.28511977922352</v>
       </c>
       <c r="E36">
         <f>B29</f>
-        <v>186016664.85093871</v>
+        <v>32328.426238809723</v>
       </c>
       <c r="G36" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="H36">
         <v>-0.05</v>
@@ -5451,19 +5444,19 @@
       </c>
       <c r="J36">
         <f>F28</f>
-        <v>147263045.9035525</v>
+        <v>11980.679036282538</v>
       </c>
       <c r="K36">
         <f>F29</f>
-        <v>162764493.48250696</v>
+        <v>20119.77791729341</v>
       </c>
       <c r="L36">
         <f>G28</f>
-        <v>19136.761485405248</v>
+        <v>-0.51816363509291175</v>
       </c>
       <c r="M36">
         <f>G29</f>
-        <v>21151.166815489818</v>
+        <v>-0.44567995058265808</v>
       </c>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.2">
@@ -5472,19 +5465,19 @@
       </c>
       <c r="B37" s="1">
         <f>D37-B19</f>
-        <v>-7750723.7894772291</v>
+        <v>-4069.549440505436</v>
       </c>
       <c r="C37" s="1">
         <f>E37-B19</f>
-        <v>7750723.7894772291</v>
+        <v>4069.549440505436</v>
       </c>
       <c r="D37">
         <f>F28</f>
-        <v>147263045.9035525</v>
+        <v>11980.679036282538</v>
       </c>
       <c r="E37">
         <f>F29</f>
-        <v>162764493.48250696</v>
+        <v>20119.77791729341</v>
       </c>
     </row>
   </sheetData>
@@ -5498,8 +5491,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A756CA4-3E9F-D243-87CE-D7568CEC2E0C}">
   <dimension ref="A1:M37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="67" workbookViewId="0">
-      <selection activeCell="G34" sqref="G34:M36"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="67" workbookViewId="0">
+      <selection activeCell="M25" sqref="M25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5556,24 +5549,24 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <f>_xlfn.XLOOKUP($B$2,[1]Totals!$F:$F,[1]Totals!$C:$C) * $B$31 * (1+$B$32)</f>
-        <v>49367804</v>
+        <f>_xlfn.XLOOKUP($B$2,[1]Totals!$E:$E,[1]Totals!$B:$B) * $B$31 * (1+$B$32)</f>
+        <v>28846.586899999998</v>
       </c>
       <c r="D4">
-        <f>_xlfn.XLOOKUP($B$2,[1]Totals!$F:$F,[1]Totals!$C:$C) * $B$31 * (1+$B$32)</f>
-        <v>49367804</v>
+        <f>_xlfn.XLOOKUP($B$2,[1]Totals!$E:$E,[1]Totals!$B:$B) * $B$31 * (1+$B$32)</f>
+        <v>28846.586899999998</v>
       </c>
       <c r="E4">
-        <f>_xlfn.XLOOKUP($B$2,[1]Totals!$F:$F,[1]Totals!$C:$C) * $B$31 * (1+$B$32)</f>
-        <v>49367804</v>
+        <f>_xlfn.XLOOKUP($B$2,[1]Totals!$E:$E,[1]Totals!$B:$B) * $B$31 * (1+$B$32)</f>
+        <v>28846.586899999998</v>
       </c>
       <c r="F4">
-        <f>_xlfn.XLOOKUP($B$2,[1]Totals!$F:$F,[1]Totals!$C:$C) * $B$31 * (1+$B$32)</f>
-        <v>49367804</v>
+        <f>_xlfn.XLOOKUP($B$2,[1]Totals!$E:$E,[1]Totals!$B:$B) * $B$31 * (1+$B$32)</f>
+        <v>28846.586899999998</v>
       </c>
       <c r="G4">
-        <f>_xlfn.XLOOKUP($B$2,[1]Totals!$F:$F,[1]Totals!$C:$C) * $B$31 * (1+$B$32)</f>
-        <v>49367804</v>
+        <f>_xlfn.XLOOKUP($B$2,[1]Totals!$E:$E,[1]Totals!$B:$B) * $B$31 * (1+$B$32)</f>
+        <v>28846.586899999998</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
@@ -5582,23 +5575,23 @@
       </c>
       <c r="C5" cm="1">
         <f t="array" ref="C5">[2]!fixed_opex*(1+[2]!inflation)^(C1-1)</f>
-        <v>17.632999999999999</v>
+        <v>39.71</v>
       </c>
       <c r="D5" cm="1">
         <f t="array" ref="D5">[2]!fixed_opex*(1+[2]!inflation)^(D1-1)</f>
-        <v>18.33832</v>
+        <v>41.298400000000001</v>
       </c>
       <c r="E5" cm="1">
         <f t="array" ref="E5">[2]!fixed_opex*(1+[2]!inflation)^(E1-1)</f>
-        <v>19.071852800000002</v>
+        <v>42.950336000000007</v>
       </c>
       <c r="F5" cm="1">
         <f t="array" ref="F5">[2]!fixed_opex*(1+[2]!inflation)^(F1-1)</f>
-        <v>19.834726912000001</v>
+        <v>44.668349440000007</v>
       </c>
       <c r="G5" cm="1">
         <f t="array" ref="G5">[2]!fixed_opex*(1+[2]!inflation)^(G1-1)</f>
-        <v>20.628115988480001</v>
+        <v>46.455083417600008</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
@@ -5607,23 +5600,23 @@
       </c>
       <c r="C6">
         <f>C4-C5</f>
-        <v>49367786.366999999</v>
+        <v>28806.876899999999</v>
       </c>
       <c r="D6">
         <f t="shared" ref="D6:G6" si="1">D4-D5</f>
-        <v>49367785.661679998</v>
+        <v>28805.288499999999</v>
       </c>
       <c r="E6">
         <f t="shared" si="1"/>
-        <v>49367784.928147197</v>
+        <v>28803.636563999997</v>
       </c>
       <c r="F6">
         <f t="shared" si="1"/>
-        <v>49367784.165273085</v>
+        <v>28801.91855056</v>
       </c>
       <c r="G6">
         <f t="shared" si="1"/>
-        <v>49367783.371884011</v>
+        <v>28800.131816582398</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
@@ -5632,23 +5625,23 @@
       </c>
       <c r="C7">
         <f>_xlfn.XLOOKUP(C1,[3]Depreciation_Schedule!$A:$A,[3]Depreciation_Schedule!$K:$K)</f>
-        <v>99.275000000000006</v>
+        <v>9927.5</v>
       </c>
       <c r="D7">
         <f>_xlfn.XLOOKUP(D1,[3]Depreciation_Schedule!$A:$A,[3]Depreciation_Schedule!$K:$K)</f>
-        <v>99.275000000000006</v>
+        <v>9927.5</v>
       </c>
       <c r="E7">
         <f>_xlfn.XLOOKUP(E1,[3]Depreciation_Schedule!$A:$A,[3]Depreciation_Schedule!$K:$K)</f>
-        <v>99.275000000000006</v>
+        <v>9927.5</v>
       </c>
       <c r="F7">
         <f>_xlfn.XLOOKUP(F1,[3]Depreciation_Schedule!$A:$A,[3]Depreciation_Schedule!$K:$K)</f>
-        <v>99.275000000000006</v>
+        <v>9927.5</v>
       </c>
       <c r="G7">
         <f>_xlfn.XLOOKUP(G1,[3]Depreciation_Schedule!$A:$A,[3]Depreciation_Schedule!$K:$K)</f>
-        <v>99.275000000000006</v>
+        <v>9927.5</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
@@ -5657,23 +5650,23 @@
       </c>
       <c r="C8">
         <f>C6-C7</f>
-        <v>49367687.092</v>
+        <v>18879.376899999999</v>
       </c>
       <c r="D8">
         <f t="shared" ref="D8:F8" si="2">D6-D7</f>
-        <v>49367686.38668</v>
+        <v>18877.788499999999</v>
       </c>
       <c r="E8">
         <f t="shared" si="2"/>
-        <v>49367685.653147198</v>
+        <v>18876.136563999997</v>
       </c>
       <c r="F8">
         <f t="shared" si="2"/>
-        <v>49367684.890273087</v>
+        <v>18874.41855056</v>
       </c>
       <c r="G8">
         <f>G6-G7</f>
-        <v>49367684.096884012</v>
+        <v>18872.631816582398</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
@@ -5682,23 +5675,23 @@
       </c>
       <c r="C9">
         <f>_xlfn.XLOOKUP(C1,[3]Debt_Amortisation!$A:$A,[3]Debt_Amortisation!$C:$C)</f>
-        <v>134.995</v>
+        <v>13499.5</v>
       </c>
       <c r="D9">
         <f>_xlfn.XLOOKUP(D1,[3]Debt_Amortisation!$A:$A,[3]Debt_Amortisation!$C:$C)</f>
-        <v>126.31939085615907</v>
+        <v>12631.939085615906</v>
       </c>
       <c r="E9">
         <f>_xlfn.XLOOKUP(E1,[3]Debt_Amortisation!$A:$A,[3]Debt_Amortisation!$C:$C)</f>
-        <v>116.81959884365325</v>
+        <v>11681.959884365322</v>
       </c>
       <c r="F9">
         <f>_xlfn.XLOOKUP(F1,[3]Debt_Amortisation!$A:$A,[3]Debt_Amortisation!$C:$C)</f>
-        <v>106.41732658995937</v>
+        <v>10641.732658995934</v>
       </c>
       <c r="G9">
         <f>_xlfn.XLOOKUP(G1,[3]Debt_Amortisation!$A:$A,[3]Debt_Amortisation!$C:$C)</f>
-        <v>95.02683847216457</v>
+        <v>9502.6838472164545</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
@@ -5707,23 +5700,23 @@
       </c>
       <c r="C10">
         <f>C8-C9</f>
-        <v>49367552.097000003</v>
+        <v>5379.8768999999993</v>
       </c>
       <c r="D10">
         <f t="shared" ref="D10:G10" si="3">D8-D9</f>
-        <v>49367560.067289144</v>
+        <v>6245.8494143840926</v>
       </c>
       <c r="E10">
         <f t="shared" si="3"/>
-        <v>49367568.833548352</v>
+        <v>7194.1766796346747</v>
       </c>
       <c r="F10">
         <f t="shared" si="3"/>
-        <v>49367578.472946495</v>
+        <v>8232.685891564066</v>
       </c>
       <c r="G10">
         <f t="shared" si="3"/>
-        <v>49367589.070045538</v>
+        <v>9369.9479693659432</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
@@ -5732,23 +5725,23 @@
       </c>
       <c r="C11">
         <f>MAX(0, C10*[2]Assumptions!$C$5)</f>
-        <v>12341888.024250001</v>
+        <v>1344.9692249999998</v>
       </c>
       <c r="D11">
         <f>MAX(0, D10*[2]Assumptions!$C$5)</f>
-        <v>12341890.016822286</v>
+        <v>1561.4623535960231</v>
       </c>
       <c r="E11">
         <f>MAX(0, E10*[2]Assumptions!$C$5)</f>
-        <v>12341892.208387088</v>
+        <v>1798.5441699086687</v>
       </c>
       <c r="F11">
         <f>MAX(0, F10*[2]Assumptions!$C$5)</f>
-        <v>12341894.618236624</v>
+        <v>2058.1714728910165</v>
       </c>
       <c r="G11">
         <f>MAX(0, G10*[2]Assumptions!$C$5)</f>
-        <v>12341897.267511385</v>
+        <v>2342.4869923414858</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
@@ -5757,23 +5750,23 @@
       </c>
       <c r="C12">
         <f>C10-C11</f>
-        <v>37025664.072750002</v>
+        <v>4034.9076749999995</v>
       </c>
       <c r="D12">
         <f t="shared" ref="D12:G12" si="4">D10-D11</f>
-        <v>37025670.050466858</v>
+        <v>4684.387060788069</v>
       </c>
       <c r="E12">
         <f t="shared" si="4"/>
-        <v>37025676.62516126</v>
+        <v>5395.632509726006</v>
       </c>
       <c r="F12">
         <f t="shared" si="4"/>
-        <v>37025683.854709871</v>
+        <v>6174.5144186730495</v>
       </c>
       <c r="G12">
         <f t="shared" si="4"/>
-        <v>37025691.802534156</v>
+        <v>7027.460977024457</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
@@ -5782,23 +5775,23 @@
       </c>
       <c r="C13">
         <f>C7</f>
-        <v>99.275000000000006</v>
+        <v>9927.5</v>
       </c>
       <c r="D13">
         <f t="shared" ref="D13:G13" si="5">D7</f>
-        <v>99.275000000000006</v>
+        <v>9927.5</v>
       </c>
       <c r="E13">
         <f t="shared" si="5"/>
-        <v>99.275000000000006</v>
+        <v>9927.5</v>
       </c>
       <c r="F13">
         <f t="shared" si="5"/>
-        <v>99.275000000000006</v>
+        <v>9927.5</v>
       </c>
       <c r="G13">
         <f t="shared" si="5"/>
-        <v>99.275000000000006</v>
+        <v>9927.5</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
@@ -5807,23 +5800,23 @@
       </c>
       <c r="C14">
         <f>_xlfn.XLOOKUP(C1,[3]Debt_Amortisation!$A:$A,[3]Debt_Amortisation!$E:$E)</f>
-        <v>91.322201514115136</v>
+        <v>9132.220151411515</v>
       </c>
       <c r="D14">
         <f>_xlfn.XLOOKUP(D1,[3]Debt_Amortisation!$A:$A,[3]Debt_Amortisation!$E:$E)</f>
-        <v>99.997810657956066</v>
+        <v>9999.7810657956088</v>
       </c>
       <c r="E14">
         <f>_xlfn.XLOOKUP(E1,[3]Debt_Amortisation!$A:$A,[3]Debt_Amortisation!$E:$E)</f>
-        <v>109.49760267046189</v>
+        <v>10949.760267046193</v>
       </c>
       <c r="F14">
         <f>_xlfn.XLOOKUP(F1,[3]Debt_Amortisation!$A:$A,[3]Debt_Amortisation!$E:$E)</f>
-        <v>119.89987492415577</v>
+        <v>11989.987492415581</v>
       </c>
       <c r="G14">
         <f>_xlfn.XLOOKUP(G1,[3]Debt_Amortisation!$A:$A,[3]Debt_Amortisation!$E:$E)</f>
-        <v>131.29036304195057</v>
+        <v>13129.03630419506</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
@@ -5832,27 +5825,27 @@
       </c>
       <c r="B15" cm="1">
         <f t="array" ref="B15">-[2]!subtotal_capex</f>
-        <v>-2030</v>
+        <v>-203000</v>
       </c>
       <c r="C15">
         <f>C12+C13-C14</f>
-        <v>37025672.025548488</v>
+        <v>4830.1875235884836</v>
       </c>
       <c r="D15">
         <f t="shared" ref="D15:G15" si="6">D12+D13-D14</f>
-        <v>37025669.327656202</v>
+        <v>4612.1059949924602</v>
       </c>
       <c r="E15">
         <f t="shared" si="6"/>
-        <v>37025666.402558587</v>
+        <v>4373.3722426798122</v>
       </c>
       <c r="F15">
         <f t="shared" si="6"/>
-        <v>37025663.229834944</v>
+        <v>4112.0269262574693</v>
       </c>
       <c r="G15">
         <f t="shared" si="6"/>
-        <v>37025659.787171111</v>
+        <v>3825.9246728293965</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
@@ -5861,27 +5854,27 @@
       </c>
       <c r="B17">
         <f>B15</f>
-        <v>-2030</v>
+        <v>-203000</v>
       </c>
       <c r="C17">
         <f>B17+C15</f>
-        <v>37023642.025548488</v>
+        <v>-198169.81247641152</v>
       </c>
       <c r="D17">
         <f t="shared" ref="D17:G17" si="7">C17+D15</f>
-        <v>74049311.353204697</v>
+        <v>-193557.70648141907</v>
       </c>
       <c r="E17">
         <f t="shared" si="7"/>
-        <v>111074977.75576329</v>
+        <v>-189184.33423873925</v>
       </c>
       <c r="F17">
         <f t="shared" si="7"/>
-        <v>148100640.98559824</v>
+        <v>-185072.30731248177</v>
       </c>
       <c r="G17">
         <f t="shared" si="7"/>
-        <v>185126300.77276933</v>
+        <v>-181246.38263965238</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
@@ -5890,7 +5883,7 @@
       </c>
       <c r="B19" s="1" cm="1">
         <f t="array" ref="B19">NPV([2]!discount_rate, C15:G15)</f>
-        <v>140356407.58194691</v>
+        <v>16672.684639012514</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
@@ -5899,7 +5892,7 @@
       </c>
       <c r="B20" s="2">
         <f>IRR(B15:G15)</f>
-        <v>18239.247303166576</v>
+        <v>-0.47294629963571699</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
@@ -5908,16 +5901,16 @@
       </c>
       <c r="B21">
         <f>SUM(C12:G12)/-B15</f>
-        <v>91196.249460897612</v>
+        <v>0.13456602286311123</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>18</v>
       </c>
-      <c r="B22" cm="1">
+      <c r="B22" t="e" cm="1">
         <f t="array" ref="B22">MATCH(TRUE, C17:G17&gt;0, 0)</f>
-        <v>1</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
@@ -5948,19 +5941,19 @@
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B27" s="1">
         <f>B19</f>
-        <v>140356407.58194691</v>
+        <v>16672.684639012514</v>
       </c>
       <c r="C27" s="2">
         <f>B20</f>
-        <v>18239.247303166576</v>
+        <v>-0.47294629963571699</v>
       </c>
       <c r="F27" s="1">
         <f>B19</f>
-        <v>140356407.58194691</v>
+        <v>16672.684639012514</v>
       </c>
       <c r="G27" s="2">
         <f>B20</f>
-        <v>18239.247303166576</v>
+        <v>-0.47294629963571699</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.2">
@@ -5968,21 +5961,21 @@
         <v>0.8</v>
       </c>
       <c r="B28">
-        <f t="dataTable" ref="B28:C29" dt2D="0" dtr="0" r1="B31" ca="1"/>
-        <v>112284984.84625451</v>
-      </c>
-      <c r="C28">
-        <v>14591.380012486705</v>
+        <f t="dataTable" ref="B28:C29" dt2D="0" dtr="0" r1="B31"/>
+        <v>181.48644454586955</v>
+      </c>
+      <c r="C28" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="E28">
         <v>-0.05</v>
       </c>
       <c r="F28">
-        <f t="dataTable" ref="F28:G29" dt2D="0" dtr="0" r1="B32"/>
-        <v>133338551.8980238</v>
+        <f t="dataTable" ref="F28:G29" dt2D="0" dtr="0" r1="B32" ca="1"/>
+        <v>12572.012390395847</v>
       </c>
       <c r="G28">
-        <v>17327.280480486115</v>
+        <v>-0.51175539540157322</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
@@ -5990,19 +5983,19 @@
         <v>1.2</v>
       </c>
       <c r="B29">
-        <v>168427830.31763935</v>
+        <v>33075.373633479168</v>
       </c>
       <c r="C29">
-        <v>21887.114593789356</v>
+        <v>-0.36629164762534538</v>
       </c>
       <c r="E29">
         <v>0.05</v>
       </c>
       <c r="F29">
-        <v>147374263.26587003</v>
+        <v>20773.356887629187</v>
       </c>
       <c r="G29">
-        <v>19151.21412582108</v>
+        <v>-0.44090975402148791</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.2">
@@ -6029,22 +6022,22 @@
         <v>35</v>
       </c>
       <c r="H34" t="s">
+        <v>37</v>
+      </c>
+      <c r="I34" t="s">
         <v>38</v>
       </c>
-      <c r="I34" t="s">
+      <c r="J34" t="s">
         <v>39</v>
       </c>
-      <c r="J34" t="s">
+      <c r="K34" t="s">
         <v>40</v>
       </c>
-      <c r="K34" t="s">
+      <c r="L34" t="s">
         <v>41</v>
       </c>
-      <c r="L34" t="s">
+      <c r="M34" t="s">
         <v>42</v>
-      </c>
-      <c r="M34" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.2">
@@ -6074,19 +6067,19 @@
       </c>
       <c r="J35">
         <f>B28</f>
-        <v>112284984.84625451</v>
+        <v>181.48644454586955</v>
       </c>
       <c r="K35">
         <f>B29</f>
-        <v>168427830.31763935</v>
-      </c>
-      <c r="L35">
+        <v>33075.373633479168</v>
+      </c>
+      <c r="L35" t="e">
         <f>C28</f>
-        <v>14591.380012486705</v>
+        <v>#NUM!</v>
       </c>
       <c r="M35">
         <f>C29</f>
-        <v>21887.114593789356</v>
+        <v>-0.36629164762534538</v>
       </c>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.2">
@@ -6095,22 +6088,22 @@
       </c>
       <c r="B36" s="1">
         <f>D36-B19</f>
-        <v>-28071422.735692397</v>
+        <v>-16491.198194466644</v>
       </c>
       <c r="C36" s="1">
         <f>E36-B19</f>
-        <v>28071422.735692441</v>
+        <v>16402.688994466655</v>
       </c>
       <c r="D36">
         <f>B28</f>
-        <v>112284984.84625451</v>
+        <v>181.48644454586955</v>
       </c>
       <c r="E36">
         <f>B29</f>
-        <v>168427830.31763935</v>
+        <v>33075.373633479168</v>
       </c>
       <c r="G36" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="H36">
         <v>-0.05</v>
@@ -6120,19 +6113,19 @@
       </c>
       <c r="J36">
         <f>F28</f>
-        <v>133338551.8980238</v>
+        <v>12572.012390395847</v>
       </c>
       <c r="K36">
         <f>F29</f>
-        <v>147374263.26587003</v>
+        <v>20773.356887629187</v>
       </c>
       <c r="L36">
         <f>G28</f>
-        <v>17327.280480486115</v>
+        <v>-0.51175539540157322</v>
       </c>
       <c r="M36">
         <f>G29</f>
-        <v>19151.21412582108</v>
+        <v>-0.44090975402148791</v>
       </c>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.2">
@@ -6141,19 +6134,19 @@
       </c>
       <c r="B37" s="1">
         <f>D37-B19</f>
-        <v>-7017855.6839231104</v>
+        <v>-4100.6722486166673</v>
       </c>
       <c r="C37" s="1">
         <f>E37-B19</f>
-        <v>7017855.6839231253</v>
+        <v>4100.6722486166727</v>
       </c>
       <c r="D37">
         <f>F28</f>
-        <v>133338551.8980238</v>
+        <v>12572.012390395847</v>
       </c>
       <c r="E37">
         <f>F29</f>
-        <v>147374263.26587003</v>
+        <v>20773.356887629187</v>
       </c>
     </row>
   </sheetData>
